--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2583"/>
+  <dimension ref="A1:E2627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44111,6 +44111,754 @@
         <v>0.88</v>
       </c>
     </row>
+    <row r="2584">
+      <c r="A2584" s="4" t="n">
+        <v>44354</v>
+      </c>
+      <c r="B2584" t="n">
+        <v>9475.1</v>
+      </c>
+      <c r="C2584" t="n">
+        <v>38.86</v>
+      </c>
+      <c r="D2584" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E2584" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="2585">
+      <c r="A2585" s="4" t="n">
+        <v>44355</v>
+      </c>
+      <c r="B2585" t="n">
+        <v>9485.41</v>
+      </c>
+      <c r="C2585" t="n">
+        <v>37.67</v>
+      </c>
+      <c r="D2585" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E2585" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="A2586" s="4" t="n">
+        <v>44356</v>
+      </c>
+      <c r="B2586" t="n">
+        <v>9419.809999999999</v>
+      </c>
+      <c r="C2586" t="n">
+        <v>36.58</v>
+      </c>
+      <c r="D2586" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="E2586" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="A2587" s="4" t="n">
+        <v>44357</v>
+      </c>
+      <c r="B2587" t="n">
+        <v>9570.620000000001</v>
+      </c>
+      <c r="C2587" t="n">
+        <v>37.09</v>
+      </c>
+      <c r="D2587" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="E2587" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="2588">
+      <c r="A2588" s="4" t="n">
+        <v>44358</v>
+      </c>
+      <c r="B2588" t="n">
+        <v>9590.139999999999</v>
+      </c>
+      <c r="C2588" t="n">
+        <v>37.17</v>
+      </c>
+      <c r="D2588" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="E2588" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="2589">
+      <c r="A2589" s="4" t="n">
+        <v>44361</v>
+      </c>
+      <c r="B2589" t="n">
+        <v>9548.809999999999</v>
+      </c>
+      <c r="C2589" t="n">
+        <v>37.01</v>
+      </c>
+      <c r="D2589" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="E2589" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="2590">
+      <c r="A2590" s="4" t="n">
+        <v>44362</v>
+      </c>
+      <c r="B2590" t="n">
+        <v>9614.15</v>
+      </c>
+      <c r="C2590" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="D2590" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="E2590" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="2591">
+      <c r="A2591" s="4" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B2591" t="n">
+        <v>9508.5</v>
+      </c>
+      <c r="C2591" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="D2591" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="E2591" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="A2592" s="4" t="n">
+        <v>44364</v>
+      </c>
+      <c r="B2592" t="n">
+        <v>9378.110000000001</v>
+      </c>
+      <c r="C2592" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="D2592" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E2592" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" s="4" t="n">
+        <v>44365</v>
+      </c>
+      <c r="B2593" t="n">
+        <v>9271.68</v>
+      </c>
+      <c r="C2593" t="n">
+        <v>32.46</v>
+      </c>
+      <c r="D2593" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="E2593" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="A2594" s="4" t="n">
+        <v>44368</v>
+      </c>
+      <c r="B2594" t="n">
+        <v>9350.610000000001</v>
+      </c>
+      <c r="C2594" t="n">
+        <v>32.74</v>
+      </c>
+      <c r="D2594" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="E2594" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" s="4" t="n">
+        <v>44369</v>
+      </c>
+      <c r="B2595" t="n">
+        <v>9330.01</v>
+      </c>
+      <c r="C2595" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="D2595" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="E2595" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" s="4" t="n">
+        <v>44370</v>
+      </c>
+      <c r="B2596" t="n">
+        <v>9318.129999999999</v>
+      </c>
+      <c r="C2596" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="D2596" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E2596" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" s="4" t="n">
+        <v>44371</v>
+      </c>
+      <c r="B2597" t="n">
+        <v>9279.17</v>
+      </c>
+      <c r="C2597" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2597" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="E2597" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" s="4" t="n">
+        <v>44372</v>
+      </c>
+      <c r="B2598" t="n">
+        <v>9436.66</v>
+      </c>
+      <c r="C2598" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="D2598" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E2598" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" s="4" t="n">
+        <v>44375</v>
+      </c>
+      <c r="B2599" t="n">
+        <v>9490.870000000001</v>
+      </c>
+      <c r="C2599" t="n">
+        <v>32.73</v>
+      </c>
+      <c r="D2599" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E2599" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" s="4" t="n">
+        <v>44376</v>
+      </c>
+      <c r="B2600" t="n">
+        <v>9432.75</v>
+      </c>
+      <c r="C2600" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="D2600" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E2600" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" s="4" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B2601" t="n">
+        <v>9433.51</v>
+      </c>
+      <c r="C2601" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="D2601" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E2601" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" s="4" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B2602" t="n">
+        <v>9394.299999999999</v>
+      </c>
+      <c r="C2602" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="D2602" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="E2602" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="A2603" s="4" t="n">
+        <v>44379</v>
+      </c>
+      <c r="B2603" t="n">
+        <v>9393.379999999999</v>
+      </c>
+      <c r="C2603" t="n">
+        <v>32.26</v>
+      </c>
+      <c r="D2603" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="E2603" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" s="4" t="n">
+        <v>44382</v>
+      </c>
+      <c r="B2604" t="n">
+        <v>9494.24</v>
+      </c>
+      <c r="C2604" t="n">
+        <v>30.67</v>
+      </c>
+      <c r="D2604" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="E2604" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" s="4" t="n">
+        <v>44383</v>
+      </c>
+      <c r="B2605" t="n">
+        <v>9486.73</v>
+      </c>
+      <c r="C2605" t="n">
+        <v>30.64</v>
+      </c>
+      <c r="D2605" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="E2605" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="A2606" s="4" t="n">
+        <v>44384</v>
+      </c>
+      <c r="B2606" t="n">
+        <v>9571.57</v>
+      </c>
+      <c r="C2606" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="D2606" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E2606" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" s="4" t="n">
+        <v>44385</v>
+      </c>
+      <c r="B2607" t="n">
+        <v>9502.030000000001</v>
+      </c>
+      <c r="C2607" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="D2607" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="E2607" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" s="4" t="n">
+        <v>44386</v>
+      </c>
+      <c r="B2608" t="n">
+        <v>9578.08</v>
+      </c>
+      <c r="C2608" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="D2608" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E2608" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" s="4" t="n">
+        <v>44389</v>
+      </c>
+      <c r="B2609" t="n">
+        <v>9627.549999999999</v>
+      </c>
+      <c r="C2609" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="D2609" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="E2609" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" s="4" t="n">
+        <v>44390</v>
+      </c>
+      <c r="B2610" t="n">
+        <v>9650.440000000001</v>
+      </c>
+      <c r="C2610" t="n">
+        <v>31.19</v>
+      </c>
+      <c r="D2610" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E2610" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" s="4" t="n">
+        <v>44391</v>
+      </c>
+      <c r="B2611" t="n">
+        <v>9667.379999999999</v>
+      </c>
+      <c r="C2611" t="n">
+        <v>31.24</v>
+      </c>
+      <c r="D2611" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E2611" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" s="4" t="n">
+        <v>44392</v>
+      </c>
+      <c r="B2612" t="n">
+        <v>9692.84</v>
+      </c>
+      <c r="C2612" t="n">
+        <v>31.24</v>
+      </c>
+      <c r="D2612" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="E2612" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" s="4" t="n">
+        <v>44393</v>
+      </c>
+      <c r="B2613" t="n">
+        <v>9738.65</v>
+      </c>
+      <c r="C2613" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="D2613" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E2613" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" s="4" t="n">
+        <v>44396</v>
+      </c>
+      <c r="B2614" t="n">
+        <v>9640.889999999999</v>
+      </c>
+      <c r="C2614" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="D2614" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E2614" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" s="4" t="n">
+        <v>44397</v>
+      </c>
+      <c r="B2615" t="n">
+        <v>9480.26</v>
+      </c>
+      <c r="C2615" t="n">
+        <v>30.54</v>
+      </c>
+      <c r="D2615" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="E2615" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" s="4" t="n">
+        <v>44399</v>
+      </c>
+      <c r="B2616" t="n">
+        <v>9587.82</v>
+      </c>
+      <c r="C2616" t="n">
+        <v>30.89</v>
+      </c>
+      <c r="D2616" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E2616" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" s="4" t="n">
+        <v>44400</v>
+      </c>
+      <c r="B2617" t="n">
+        <v>9570.27</v>
+      </c>
+      <c r="C2617" t="n">
+        <v>30.83</v>
+      </c>
+      <c r="D2617" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="E2617" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" s="4" t="n">
+        <v>44403</v>
+      </c>
+      <c r="B2618" t="n">
+        <v>9538.290000000001</v>
+      </c>
+      <c r="C2618" t="n">
+        <v>30.73</v>
+      </c>
+      <c r="D2618" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="E2618" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" s="4" t="n">
+        <v>44404</v>
+      </c>
+      <c r="B2619" t="n">
+        <v>9471.190000000001</v>
+      </c>
+      <c r="C2619" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="D2619" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E2619" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" s="4" t="n">
+        <v>44405</v>
+      </c>
+      <c r="B2620" t="n">
+        <v>9439.549999999999</v>
+      </c>
+      <c r="C2620" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="D2620" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E2620" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" s="4" t="n">
+        <v>44406</v>
+      </c>
+      <c r="B2621" t="n">
+        <v>9545.209999999999</v>
+      </c>
+      <c r="C2621" t="n">
+        <v>31.86</v>
+      </c>
+      <c r="D2621" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="E2621" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" s="4" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B2622" t="n">
+        <v>9677.299999999999</v>
+      </c>
+      <c r="C2622" t="n">
+        <v>31.98</v>
+      </c>
+      <c r="D2622" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E2622" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" s="4" t="n">
+        <v>44410</v>
+      </c>
+      <c r="B2623" t="n">
+        <v>9829.549999999999</v>
+      </c>
+      <c r="C2623" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="D2623" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E2623" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" s="4" t="n">
+        <v>44411</v>
+      </c>
+      <c r="B2624" t="n">
+        <v>9829.120000000001</v>
+      </c>
+      <c r="C2624" t="n">
+        <v>33.16</v>
+      </c>
+      <c r="D2624" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E2624" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" s="4" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B2625" t="n">
+        <v>9714.129999999999</v>
+      </c>
+      <c r="C2625" t="n">
+        <v>33.48</v>
+      </c>
+      <c r="D2625" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E2625" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" s="4" t="n">
+        <v>44413</v>
+      </c>
+      <c r="B2626" t="n">
+        <v>9724.809999999999</v>
+      </c>
+      <c r="C2626" t="n">
+        <v>33.51</v>
+      </c>
+      <c r="D2626" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E2626" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" s="4" t="n">
+        <v>44414</v>
+      </c>
+      <c r="B2627" t="n">
+        <v>9710.76</v>
+      </c>
+      <c r="C2627" t="n">
+        <v>33.23</v>
+      </c>
+      <c r="D2627" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E2627" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2627"/>
+  <dimension ref="A1:E2670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44859,6 +44859,737 @@
         <v>0.98</v>
       </c>
     </row>
+    <row r="2628">
+      <c r="A2628" s="4" t="n">
+        <v>44417</v>
+      </c>
+      <c r="B2628" t="n">
+        <v>9586.09</v>
+      </c>
+      <c r="C2628" t="n">
+        <v>32.54</v>
+      </c>
+      <c r="D2628" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E2628" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" s="4" t="n">
+        <v>44418</v>
+      </c>
+      <c r="B2629" t="n">
+        <v>9427.26</v>
+      </c>
+      <c r="C2629" t="n">
+        <v>28.23</v>
+      </c>
+      <c r="D2629" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E2629" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2630">
+      <c r="A2630" s="4" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B2630" t="n">
+        <v>9455.549999999999</v>
+      </c>
+      <c r="C2630" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="D2630" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E2630" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2631">
+      <c r="A2631" s="4" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B2631" t="n">
+        <v>9560.370000000001</v>
+      </c>
+      <c r="C2631" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="D2631" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E2631" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2632">
+      <c r="A2632" s="4" t="n">
+        <v>44421</v>
+      </c>
+      <c r="B2632" t="n">
+        <v>9504.85</v>
+      </c>
+      <c r="C2632" t="n">
+        <v>27.33</v>
+      </c>
+      <c r="D2632" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E2632" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2633">
+      <c r="A2633" s="4" t="n">
+        <v>44424</v>
+      </c>
+      <c r="B2633" t="n">
+        <v>9468.200000000001</v>
+      </c>
+      <c r="C2633" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="D2633" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E2633" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2634">
+      <c r="A2634" s="4" t="n">
+        <v>44425</v>
+      </c>
+      <c r="B2634" t="n">
+        <v>9439.02</v>
+      </c>
+      <c r="C2634" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="D2634" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E2634" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" s="4" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B2635" t="n">
+        <v>9442.610000000001</v>
+      </c>
+      <c r="C2635" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="D2635" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E2635" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" s="4" t="n">
+        <v>44428</v>
+      </c>
+      <c r="B2636" t="n">
+        <v>9156.41</v>
+      </c>
+      <c r="C2636" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="D2636" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="E2636" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" s="4" t="n">
+        <v>44431</v>
+      </c>
+      <c r="B2637" t="n">
+        <v>9091.66</v>
+      </c>
+      <c r="C2637" t="n">
+        <v>20.94</v>
+      </c>
+      <c r="D2637" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E2637" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" s="4" t="n">
+        <v>44432</v>
+      </c>
+      <c r="B2638" t="n">
+        <v>9254.4</v>
+      </c>
+      <c r="C2638" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="D2638" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E2638" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2639">
+      <c r="A2639" s="4" t="n">
+        <v>44433</v>
+      </c>
+      <c r="B2639" t="n">
+        <v>9247.34</v>
+      </c>
+      <c r="C2639" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D2639" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E2639" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2640">
+      <c r="A2640" s="4" t="n">
+        <v>44434</v>
+      </c>
+      <c r="B2640" t="n">
+        <v>9224.200000000001</v>
+      </c>
+      <c r="C2640" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="D2640" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E2640" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="A2641" s="4" t="n">
+        <v>44435</v>
+      </c>
+      <c r="B2641" t="n">
+        <v>9308.16</v>
+      </c>
+      <c r="C2641" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="D2641" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E2641" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2642">
+      <c r="A2642" s="4" t="n">
+        <v>44438</v>
+      </c>
+      <c r="B2642" t="n">
+        <v>9489.27</v>
+      </c>
+      <c r="C2642" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="D2642" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E2642" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="A2643" s="4" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B2643" t="n">
+        <v>9496.52</v>
+      </c>
+      <c r="C2643" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="D2643" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E2643" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="A2644" s="4" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B2644" t="n">
+        <v>9600.59</v>
+      </c>
+      <c r="C2644" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="D2644" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E2644" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" s="4" t="n">
+        <v>44441</v>
+      </c>
+      <c r="B2645" t="n">
+        <v>9736.52</v>
+      </c>
+      <c r="C2645" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="D2645" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E2645" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" s="4" t="n">
+        <v>44442</v>
+      </c>
+      <c r="B2646" t="n">
+        <v>9791.959999999999</v>
+      </c>
+      <c r="C2646" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="D2646" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="E2646" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2647">
+      <c r="A2647" s="4" t="n">
+        <v>44445</v>
+      </c>
+      <c r="B2647" t="n">
+        <v>9822.309999999999</v>
+      </c>
+      <c r="C2647" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="D2647" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E2647" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="A2648" s="4" t="n">
+        <v>44446</v>
+      </c>
+      <c r="B2648" t="n">
+        <v>9843.790000000001</v>
+      </c>
+      <c r="C2648" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="D2648" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E2648" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" s="4" t="n">
+        <v>44447</v>
+      </c>
+      <c r="B2649" t="n">
+        <v>9886.530000000001</v>
+      </c>
+      <c r="C2649" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="D2649" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E2649" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="A2650" s="4" t="n">
+        <v>44448</v>
+      </c>
+      <c r="B2650" t="n">
+        <v>9913.030000000001</v>
+      </c>
+      <c r="C2650" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="D2650" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E2650" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2651">
+      <c r="A2651" s="4" t="n">
+        <v>44452</v>
+      </c>
+      <c r="B2651" t="n">
+        <v>9957.559999999999</v>
+      </c>
+      <c r="C2651" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="D2651" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E2651" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2652">
+      <c r="A2652" s="4" t="n">
+        <v>44453</v>
+      </c>
+      <c r="B2652" t="n">
+        <v>10153.39</v>
+      </c>
+      <c r="C2652" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="D2652" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E2652" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2653">
+      <c r="A2653" s="4" t="n">
+        <v>44454</v>
+      </c>
+      <c r="B2653" t="n">
+        <v>10288.83</v>
+      </c>
+      <c r="C2653" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="D2653" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="E2653" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" s="4" t="n">
+        <v>44455</v>
+      </c>
+      <c r="B2654" t="n">
+        <v>10376.83</v>
+      </c>
+      <c r="C2654" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="D2654" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E2654" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2655">
+      <c r="A2655" s="4" t="n">
+        <v>44456</v>
+      </c>
+      <c r="B2655" t="n">
+        <v>10254.55</v>
+      </c>
+      <c r="C2655" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D2655" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E2655" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2656">
+      <c r="A2656" s="4" t="n">
+        <v>44459</v>
+      </c>
+      <c r="B2656" t="n">
+        <v>9998.83</v>
+      </c>
+      <c r="C2656" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="D2656" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="E2656" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="2657">
+      <c r="A2657" s="4" t="n">
+        <v>44460</v>
+      </c>
+      <c r="B2657" t="n">
+        <v>10079.24</v>
+      </c>
+      <c r="C2657" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="D2657" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="E2657" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="2658">
+      <c r="A2658" s="4" t="n">
+        <v>44461</v>
+      </c>
+      <c r="B2658" t="n">
+        <v>10355.54</v>
+      </c>
+      <c r="C2658" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="D2658" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E2658" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" s="4" t="n">
+        <v>44462</v>
+      </c>
+      <c r="B2659" t="n">
+        <v>10487.78</v>
+      </c>
+      <c r="C2659" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="D2659" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E2659" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" s="4" t="n">
+        <v>44463</v>
+      </c>
+      <c r="B2660" t="n">
+        <v>10376.81</v>
+      </c>
+      <c r="C2660" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="D2660" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E2660" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" s="4" t="n">
+        <v>44466</v>
+      </c>
+      <c r="B2661" t="n">
+        <v>10411.34</v>
+      </c>
+      <c r="C2661" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="D2661" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E2661" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" s="4" t="n">
+        <v>44467</v>
+      </c>
+      <c r="B2662" t="n">
+        <v>10353.48</v>
+      </c>
+      <c r="C2662" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="D2662" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E2662" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" s="4" t="n">
+        <v>44468</v>
+      </c>
+      <c r="B2663" t="n">
+        <v>10470.4</v>
+      </c>
+      <c r="C2663" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="D2663" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="E2663" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" s="4" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B2664" t="n">
+        <v>10496.53</v>
+      </c>
+      <c r="C2664" t="n">
+        <v>32.88</v>
+      </c>
+      <c r="D2664" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E2664" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" s="4" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B2665" t="n">
+        <v>10475.27</v>
+      </c>
+      <c r="C2665" t="n">
+        <v>32.82</v>
+      </c>
+      <c r="D2665" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E2665" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" s="4" t="n">
+        <v>44473</v>
+      </c>
+      <c r="B2666" t="n">
+        <v>10667.6</v>
+      </c>
+      <c r="C2666" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="D2666" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E2666" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" s="4" t="n">
+        <v>44474</v>
+      </c>
+      <c r="B2667" t="n">
+        <v>10740.31</v>
+      </c>
+      <c r="C2667" t="n">
+        <v>33.65</v>
+      </c>
+      <c r="D2667" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E2667" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" s="4" t="n">
+        <v>44475</v>
+      </c>
+      <c r="B2668" t="n">
+        <v>10597.32</v>
+      </c>
+      <c r="C2668" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D2668" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E2668" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" s="4" t="n">
+        <v>44476</v>
+      </c>
+      <c r="B2669" t="n">
+        <v>10845.09</v>
+      </c>
+      <c r="C2669" t="n">
+        <v>33.97</v>
+      </c>
+      <c r="D2669" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E2669" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" s="4" t="n">
+        <v>44477</v>
+      </c>
+      <c r="B2670" t="n">
+        <v>10894.19</v>
+      </c>
+      <c r="C2670" t="n">
+        <v>34.13</v>
+      </c>
+      <c r="D2670" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="E2670" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2670"/>
+  <dimension ref="A1:E2684"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45590,6 +45590,244 @@
         <v>0.99</v>
       </c>
     </row>
+    <row r="2671">
+      <c r="A2671" s="4" t="n">
+        <v>44480</v>
+      </c>
+      <c r="B2671" t="n">
+        <v>10974.46</v>
+      </c>
+      <c r="C2671" t="n">
+        <v>34.38</v>
+      </c>
+      <c r="D2671" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E2671" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" s="4" t="n">
+        <v>44481</v>
+      </c>
+      <c r="B2672" t="n">
+        <v>11067.99</v>
+      </c>
+      <c r="C2672" t="n">
+        <v>34.67</v>
+      </c>
+      <c r="D2672" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E2672" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" s="4" t="n">
+        <v>44482</v>
+      </c>
+      <c r="B2673" t="n">
+        <v>11222.62</v>
+      </c>
+      <c r="C2673" t="n">
+        <v>35.16</v>
+      </c>
+      <c r="D2673" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="E2673" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" s="4" t="n">
+        <v>44483</v>
+      </c>
+      <c r="B2674" t="n">
+        <v>11330.3</v>
+      </c>
+      <c r="C2674" t="n">
+        <v>35.49</v>
+      </c>
+      <c r="D2674" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E2674" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" s="4" t="n">
+        <v>44487</v>
+      </c>
+      <c r="B2675" t="n">
+        <v>11512.44</v>
+      </c>
+      <c r="C2675" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="D2675" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E2675" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" s="4" t="n">
+        <v>44488</v>
+      </c>
+      <c r="B2676" t="n">
+        <v>11257.13</v>
+      </c>
+      <c r="C2676" t="n">
+        <v>35.18</v>
+      </c>
+      <c r="D2676" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E2676" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" s="4" t="n">
+        <v>44489</v>
+      </c>
+      <c r="B2677" t="n">
+        <v>11042.53</v>
+      </c>
+      <c r="C2677" t="n">
+        <v>34.51</v>
+      </c>
+      <c r="D2677" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E2677" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" s="4" t="n">
+        <v>44490</v>
+      </c>
+      <c r="B2678" t="n">
+        <v>11011.11</v>
+      </c>
+      <c r="C2678" t="n">
+        <v>34.39</v>
+      </c>
+      <c r="D2678" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E2678" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" s="4" t="n">
+        <v>44491</v>
+      </c>
+      <c r="B2679" t="n">
+        <v>10949.35</v>
+      </c>
+      <c r="C2679" t="n">
+        <v>34.21</v>
+      </c>
+      <c r="D2679" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="E2679" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2680">
+      <c r="A2680" s="4" t="n">
+        <v>44494</v>
+      </c>
+      <c r="B2680" t="n">
+        <v>10725.6</v>
+      </c>
+      <c r="C2680" t="n">
+        <v>33.84</v>
+      </c>
+      <c r="D2680" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="E2680" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" s="4" t="n">
+        <v>44495</v>
+      </c>
+      <c r="B2681" t="n">
+        <v>10958.11</v>
+      </c>
+      <c r="C2681" t="n">
+        <v>34.31</v>
+      </c>
+      <c r="D2681" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E2681" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="A2682" s="4" t="n">
+        <v>44496</v>
+      </c>
+      <c r="B2682" t="n">
+        <v>10981.7</v>
+      </c>
+      <c r="C2682" t="n">
+        <v>34.12</v>
+      </c>
+      <c r="D2682" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E2682" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="A2683" s="4" t="n">
+        <v>44497</v>
+      </c>
+      <c r="B2683" t="n">
+        <v>10796.83</v>
+      </c>
+      <c r="C2683" t="n">
+        <v>33.19</v>
+      </c>
+      <c r="D2683" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E2683" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="A2684" s="4" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B2684" t="n">
+        <v>10795.61</v>
+      </c>
+      <c r="C2684" t="n">
+        <v>30.73</v>
+      </c>
+      <c r="D2684" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E2684" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2684"/>
+  <dimension ref="A1:E2688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45828,6 +45828,74 @@
         <v>1.03</v>
       </c>
     </row>
+    <row r="2685">
+      <c r="A2685" s="4" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B2685" t="n">
+        <v>11007.07</v>
+      </c>
+      <c r="C2685" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="D2685" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E2685" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2686">
+      <c r="A2686" s="4" t="n">
+        <v>44502</v>
+      </c>
+      <c r="B2686" t="n">
+        <v>11114.17</v>
+      </c>
+      <c r="C2686" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="D2686" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E2686" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="A2687" s="4" t="n">
+        <v>44503</v>
+      </c>
+      <c r="B2687" t="n">
+        <v>11067.08</v>
+      </c>
+      <c r="C2687" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="D2687" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E2687" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="A2688" s="4" t="n">
+        <v>44504</v>
+      </c>
+      <c r="B2688" t="n">
+        <v>11147.12</v>
+      </c>
+      <c r="C2688" t="n">
+        <v>30.88</v>
+      </c>
+      <c r="D2688" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="E2688" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2688"/>
+  <dimension ref="A1:E2703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45896,6 +45896,261 @@
         <v>1.02</v>
       </c>
     </row>
+    <row r="2689">
+      <c r="A2689" s="4" t="n">
+        <v>44508</v>
+      </c>
+      <c r="B2689" t="n">
+        <v>11324.41</v>
+      </c>
+      <c r="C2689" t="n">
+        <v>31.14</v>
+      </c>
+      <c r="D2689" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E2689" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2690">
+      <c r="A2690" s="4" t="n">
+        <v>44509</v>
+      </c>
+      <c r="B2690" t="n">
+        <v>11439.09</v>
+      </c>
+      <c r="C2690" t="n">
+        <v>31.39</v>
+      </c>
+      <c r="D2690" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="E2690" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="A2691" s="4" t="n">
+        <v>44510</v>
+      </c>
+      <c r="B2691" t="n">
+        <v>11377.03</v>
+      </c>
+      <c r="C2691" t="n">
+        <v>31.22</v>
+      </c>
+      <c r="D2691" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="E2691" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2692">
+      <c r="A2692" s="4" t="n">
+        <v>44511</v>
+      </c>
+      <c r="B2692" t="n">
+        <v>11271.89</v>
+      </c>
+      <c r="C2692" t="n">
+        <v>30.91</v>
+      </c>
+      <c r="D2692" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E2692" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2693">
+      <c r="A2693" s="4" t="n">
+        <v>44512</v>
+      </c>
+      <c r="B2693" t="n">
+        <v>11326.87</v>
+      </c>
+      <c r="C2693" t="n">
+        <v>31.06</v>
+      </c>
+      <c r="D2693" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E2693" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2694">
+      <c r="A2694" s="4" t="n">
+        <v>44515</v>
+      </c>
+      <c r="B2694" t="n">
+        <v>11375.69</v>
+      </c>
+      <c r="C2694" t="n">
+        <v>30.53</v>
+      </c>
+      <c r="D2694" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="E2694" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2695">
+      <c r="A2695" s="4" t="n">
+        <v>44516</v>
+      </c>
+      <c r="B2695" t="n">
+        <v>11344.93</v>
+      </c>
+      <c r="C2695" t="n">
+        <v>30.21</v>
+      </c>
+      <c r="D2695" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E2695" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="2696">
+      <c r="A2696" s="4" t="n">
+        <v>44517</v>
+      </c>
+      <c r="B2696" t="n">
+        <v>11282.35</v>
+      </c>
+      <c r="C2696" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="D2696" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E2696" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2697">
+      <c r="A2697" s="4" t="n">
+        <v>44518</v>
+      </c>
+      <c r="B2697" t="n">
+        <v>11092.13</v>
+      </c>
+      <c r="C2697" t="n">
+        <v>29.53</v>
+      </c>
+      <c r="D2697" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="E2697" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2698">
+      <c r="A2698" s="4" t="n">
+        <v>44522</v>
+      </c>
+      <c r="B2698" t="n">
+        <v>10763.82</v>
+      </c>
+      <c r="C2698" t="n">
+        <v>28.66</v>
+      </c>
+      <c r="D2698" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E2698" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2699">
+      <c r="A2699" s="4" t="n">
+        <v>44523</v>
+      </c>
+      <c r="B2699" t="n">
+        <v>10969.15</v>
+      </c>
+      <c r="C2699" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D2699" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E2699" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2700">
+      <c r="A2700" s="4" t="n">
+        <v>44524</v>
+      </c>
+      <c r="B2700" t="n">
+        <v>10916.07</v>
+      </c>
+      <c r="C2700" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="D2700" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E2700" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2701">
+      <c r="A2701" s="4" t="n">
+        <v>44525</v>
+      </c>
+      <c r="B2701" t="n">
+        <v>10965.71</v>
+      </c>
+      <c r="C2701" t="n">
+        <v>29.18</v>
+      </c>
+      <c r="D2701" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E2701" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" s="4" t="n">
+        <v>44526</v>
+      </c>
+      <c r="B2702" t="n">
+        <v>10549.33</v>
+      </c>
+      <c r="C2702" t="n">
+        <v>28.07</v>
+      </c>
+      <c r="D2702" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E2702" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" s="4" t="n">
+        <v>44529</v>
+      </c>
+      <c r="B2703" t="n">
+        <v>10388.57</v>
+      </c>
+      <c r="C2703" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="D2703" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E2703" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2703"/>
+  <dimension ref="A1:E2707"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46151,6 +46151,74 @@
         <v>1.1</v>
       </c>
     </row>
+    <row r="2704">
+      <c r="A2704" s="4" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B2704" t="n">
+        <v>10401.35</v>
+      </c>
+      <c r="C2704" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="D2704" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="E2704" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2705">
+      <c r="A2705" s="4" t="n">
+        <v>44531</v>
+      </c>
+      <c r="B2705" t="n">
+        <v>10549.4</v>
+      </c>
+      <c r="C2705" t="n">
+        <v>28.07</v>
+      </c>
+      <c r="D2705" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E2705" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2706">
+      <c r="A2706" s="4" t="n">
+        <v>44532</v>
+      </c>
+      <c r="B2706" t="n">
+        <v>10675.33</v>
+      </c>
+      <c r="C2706" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="D2706" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E2706" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" s="4" t="n">
+        <v>44533</v>
+      </c>
+      <c r="B2707" t="n">
+        <v>10675.58</v>
+      </c>
+      <c r="C2707" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="D2707" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E2707" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2707"/>
+  <dimension ref="A1:E2712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46219,6 +46219,91 @@
         <v>1.07</v>
       </c>
     </row>
+    <row r="2708">
+      <c r="A2708" s="4" t="n">
+        <v>44536</v>
+      </c>
+      <c r="B2708" t="n">
+        <v>10546.4</v>
+      </c>
+      <c r="C2708" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="D2708" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E2708" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2709">
+      <c r="A2709" s="4" t="n">
+        <v>44537</v>
+      </c>
+      <c r="B2709" t="n">
+        <v>10684.76</v>
+      </c>
+      <c r="C2709" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="D2709" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E2709" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2710">
+      <c r="A2710" s="4" t="n">
+        <v>44538</v>
+      </c>
+      <c r="B2710" t="n">
+        <v>10869.45</v>
+      </c>
+      <c r="C2710" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="D2710" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E2710" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="A2711" s="4" t="n">
+        <v>44539</v>
+      </c>
+      <c r="B2711" t="n">
+        <v>10917.72</v>
+      </c>
+      <c r="C2711" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="D2711" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E2711" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="A2712" s="4" t="n">
+        <v>44540</v>
+      </c>
+      <c r="B2712" t="n">
+        <v>10991.16</v>
+      </c>
+      <c r="C2712" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="D2712" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E2712" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2712"/>
+  <dimension ref="A1:E2727"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46304,6 +46304,261 @@
         <v>1.04</v>
       </c>
     </row>
+    <row r="2713">
+      <c r="A2713" s="4" t="n">
+        <v>44543</v>
+      </c>
+      <c r="B2713" t="n">
+        <v>10964.32</v>
+      </c>
+      <c r="C2713" t="n">
+        <v>29.18</v>
+      </c>
+      <c r="D2713" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E2713" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="A2714" s="4" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B2714" t="n">
+        <v>10918.3</v>
+      </c>
+      <c r="C2714" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="D2714" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E2714" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="A2715" s="4" t="n">
+        <v>44545</v>
+      </c>
+      <c r="B2715" t="n">
+        <v>10825.99</v>
+      </c>
+      <c r="C2715" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="D2715" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E2715" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="2716">
+      <c r="A2716" s="4" t="n">
+        <v>44546</v>
+      </c>
+      <c r="B2716" t="n">
+        <v>10782.3</v>
+      </c>
+      <c r="C2716" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="D2716" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E2716" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="A2717" s="4" t="n">
+        <v>44547</v>
+      </c>
+      <c r="B2717" t="n">
+        <v>10504.56</v>
+      </c>
+      <c r="C2717" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="D2717" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E2717" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2718">
+      <c r="A2718" s="4" t="n">
+        <v>44550</v>
+      </c>
+      <c r="B2718" t="n">
+        <v>10101.23</v>
+      </c>
+      <c r="C2718" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="D2718" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E2718" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="2719">
+      <c r="A2719" s="4" t="n">
+        <v>44551</v>
+      </c>
+      <c r="B2719" t="n">
+        <v>10246.69</v>
+      </c>
+      <c r="C2719" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="D2719" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E2719" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2720">
+      <c r="A2720" s="4" t="n">
+        <v>44552</v>
+      </c>
+      <c r="B2720" t="n">
+        <v>10421.43</v>
+      </c>
+      <c r="C2720" t="n">
+        <v>27.73</v>
+      </c>
+      <c r="D2720" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="E2720" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="A2721" s="4" t="n">
+        <v>44553</v>
+      </c>
+      <c r="B2721" t="n">
+        <v>10521.5</v>
+      </c>
+      <c r="C2721" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2721" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E2721" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2722">
+      <c r="A2722" s="4" t="n">
+        <v>44554</v>
+      </c>
+      <c r="B2722" t="n">
+        <v>10405.48</v>
+      </c>
+      <c r="C2722" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="D2722" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="E2722" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2723">
+      <c r="A2723" s="4" t="n">
+        <v>44557</v>
+      </c>
+      <c r="B2723" t="n">
+        <v>10424.36</v>
+      </c>
+      <c r="C2723" t="n">
+        <v>27.74</v>
+      </c>
+      <c r="D2723" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="E2723" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2724">
+      <c r="A2724" s="4" t="n">
+        <v>44558</v>
+      </c>
+      <c r="B2724" t="n">
+        <v>10546.91</v>
+      </c>
+      <c r="C2724" t="n">
+        <v>28.07</v>
+      </c>
+      <c r="D2724" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E2724" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2725">
+      <c r="A2725" s="4" t="n">
+        <v>44559</v>
+      </c>
+      <c r="B2725" t="n">
+        <v>10555.02</v>
+      </c>
+      <c r="C2725" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="D2725" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E2725" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2726">
+      <c r="A2726" s="4" t="n">
+        <v>44560</v>
+      </c>
+      <c r="B2726" t="n">
+        <v>10543.13</v>
+      </c>
+      <c r="C2726" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="D2726" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E2726" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2727">
+      <c r="A2727" s="4" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B2727" t="n">
+        <v>10686.5</v>
+      </c>
+      <c r="C2727" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="D2727" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E2727" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2727"/>
+  <dimension ref="A1:E2742"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46559,6 +46559,261 @@
         <v>1.05</v>
       </c>
     </row>
+    <row r="2728">
+      <c r="A2728" s="4" t="n">
+        <v>44564</v>
+      </c>
+      <c r="B2728" t="n">
+        <v>10830.81</v>
+      </c>
+      <c r="C2728" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="D2728" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E2728" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2729">
+      <c r="A2729" s="4" t="n">
+        <v>44565</v>
+      </c>
+      <c r="B2729" t="n">
+        <v>10875.05</v>
+      </c>
+      <c r="C2729" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="D2729" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E2729" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2730">
+      <c r="A2730" s="4" t="n">
+        <v>44566</v>
+      </c>
+      <c r="B2730" t="n">
+        <v>10889.87</v>
+      </c>
+      <c r="C2730" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="D2730" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E2730" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2731">
+      <c r="A2731" s="4" t="n">
+        <v>44567</v>
+      </c>
+      <c r="B2731" t="n">
+        <v>10922.18</v>
+      </c>
+      <c r="C2731" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="D2731" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="E2731" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2732">
+      <c r="A2732" s="4" t="n">
+        <v>44568</v>
+      </c>
+      <c r="B2732" t="n">
+        <v>10986.81</v>
+      </c>
+      <c r="C2732" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="D2732" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E2732" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="2733">
+      <c r="A2733" s="4" t="n">
+        <v>44571</v>
+      </c>
+      <c r="B2733" t="n">
+        <v>11087.33</v>
+      </c>
+      <c r="C2733" t="n">
+        <v>29.57</v>
+      </c>
+      <c r="D2733" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="E2733" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2734">
+      <c r="A2734" s="4" t="n">
+        <v>44572</v>
+      </c>
+      <c r="B2734" t="n">
+        <v>11099.3</v>
+      </c>
+      <c r="C2734" t="n">
+        <v>29.61</v>
+      </c>
+      <c r="D2734" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E2734" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="2735">
+      <c r="A2735" s="4" t="n">
+        <v>44573</v>
+      </c>
+      <c r="B2735" t="n">
+        <v>11232.02</v>
+      </c>
+      <c r="C2735" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="D2735" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E2735" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2736">
+      <c r="A2736" s="4" t="n">
+        <v>44574</v>
+      </c>
+      <c r="B2736" t="n">
+        <v>11304.39</v>
+      </c>
+      <c r="C2736" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="D2736" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E2736" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2737">
+      <c r="A2737" s="4" t="n">
+        <v>44575</v>
+      </c>
+      <c r="B2737" t="n">
+        <v>11294.88</v>
+      </c>
+      <c r="C2737" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="D2737" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E2737" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2738">
+      <c r="A2738" s="4" t="n">
+        <v>44578</v>
+      </c>
+      <c r="B2738" t="n">
+        <v>11309.3</v>
+      </c>
+      <c r="C2738" t="n">
+        <v>30.12</v>
+      </c>
+      <c r="D2738" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E2738" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" s="4" t="n">
+        <v>44579</v>
+      </c>
+      <c r="B2739" t="n">
+        <v>11051.34</v>
+      </c>
+      <c r="C2739" t="n">
+        <v>29.44</v>
+      </c>
+      <c r="D2739" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E2739" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2740">
+      <c r="A2740" s="4" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B2740" t="n">
+        <v>11028.02</v>
+      </c>
+      <c r="C2740" t="n">
+        <v>29.37</v>
+      </c>
+      <c r="D2740" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E2740" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2741">
+      <c r="A2741" s="4" t="n">
+        <v>44581</v>
+      </c>
+      <c r="B2741" t="n">
+        <v>10997.07</v>
+      </c>
+      <c r="C2741" t="n">
+        <v>29.27</v>
+      </c>
+      <c r="D2741" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E2741" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="2742">
+      <c r="A2742" s="4" t="n">
+        <v>44582</v>
+      </c>
+      <c r="B2742" t="n">
+        <v>10719.6</v>
+      </c>
+      <c r="C2742" t="n">
+        <v>28.54</v>
+      </c>
+      <c r="D2742" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="E2742" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2742"/>
+  <dimension ref="A1:E2761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46814,6 +46814,329 @@
         <v>1.05</v>
       </c>
     </row>
+    <row r="2743">
+      <c r="A2743" s="4" t="n">
+        <v>44585</v>
+      </c>
+      <c r="B2743" t="n">
+        <v>10297.51</v>
+      </c>
+      <c r="C2743" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="D2743" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E2743" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2744">
+      <c r="A2744" s="4" t="n">
+        <v>44586</v>
+      </c>
+      <c r="B2744" t="n">
+        <v>10436.16</v>
+      </c>
+      <c r="C2744" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="D2744" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E2744" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2745">
+      <c r="A2745" s="4" t="n">
+        <v>44588</v>
+      </c>
+      <c r="B2745" t="n">
+        <v>10348.82</v>
+      </c>
+      <c r="C2745" t="n">
+        <v>28.36</v>
+      </c>
+      <c r="D2745" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E2745" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2746">
+      <c r="A2746" s="4" t="n">
+        <v>44589</v>
+      </c>
+      <c r="B2746" t="n">
+        <v>10492.12</v>
+      </c>
+      <c r="C2746" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="D2746" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E2746" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2747">
+      <c r="A2747" s="4" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B2747" t="n">
+        <v>10667.38</v>
+      </c>
+      <c r="C2747" t="n">
+        <v>28.52</v>
+      </c>
+      <c r="D2747" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E2747" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2748">
+      <c r="A2748" s="4" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B2748" t="n">
+        <v>10765.09</v>
+      </c>
+      <c r="C2748" t="n">
+        <v>28.77</v>
+      </c>
+      <c r="D2748" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E2748" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2749">
+      <c r="A2749" s="4" t="n">
+        <v>44594</v>
+      </c>
+      <c r="B2749" t="n">
+        <v>10889.19</v>
+      </c>
+      <c r="C2749" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="D2749" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E2749" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="2750">
+      <c r="A2750" s="4" t="n">
+        <v>44595</v>
+      </c>
+      <c r="B2750" t="n">
+        <v>10763.65</v>
+      </c>
+      <c r="C2750" t="n">
+        <v>28.78</v>
+      </c>
+      <c r="D2750" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E2750" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="2751">
+      <c r="A2751" s="4" t="n">
+        <v>44596</v>
+      </c>
+      <c r="B2751" t="n">
+        <v>10652.47</v>
+      </c>
+      <c r="C2751" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="D2751" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E2751" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="2752">
+      <c r="A2752" s="4" t="n">
+        <v>44599</v>
+      </c>
+      <c r="B2752" t="n">
+        <v>10534.77</v>
+      </c>
+      <c r="C2752" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="D2752" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E2752" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="2753">
+      <c r="A2753" s="4" t="n">
+        <v>44600</v>
+      </c>
+      <c r="B2753" t="n">
+        <v>10469.55</v>
+      </c>
+      <c r="C2753" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="D2753" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E2753" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="2754">
+      <c r="A2754" s="4" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B2754" t="n">
+        <v>10633.83</v>
+      </c>
+      <c r="C2754" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="D2754" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="E2754" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" s="4" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B2755" t="n">
+        <v>10673.46</v>
+      </c>
+      <c r="C2755" t="n">
+        <v>27.57</v>
+      </c>
+      <c r="D2755" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E2755" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" s="4" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B2756" t="n">
+        <v>10430.87</v>
+      </c>
+      <c r="C2756" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="D2756" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E2756" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="2757">
+      <c r="A2757" s="4" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B2757" t="n">
+        <v>10021.55</v>
+      </c>
+      <c r="C2757" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="D2757" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E2757" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="2758">
+      <c r="A2758" s="4" t="n">
+        <v>44607</v>
+      </c>
+      <c r="B2758" t="n">
+        <v>10339.09</v>
+      </c>
+      <c r="C2758" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="D2758" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E2758" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="2759">
+      <c r="A2759" s="4" t="n">
+        <v>44608</v>
+      </c>
+      <c r="B2759" t="n">
+        <v>10305.55</v>
+      </c>
+      <c r="C2759" t="n">
+        <v>25.97</v>
+      </c>
+      <c r="D2759" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E2759" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" s="4" t="n">
+        <v>44609</v>
+      </c>
+      <c r="B2760" t="n">
+        <v>10274.15</v>
+      </c>
+      <c r="C2760" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="D2760" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E2760" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" s="4" t="n">
+        <v>44610</v>
+      </c>
+      <c r="B2761" t="n">
+        <v>10181.83</v>
+      </c>
+      <c r="C2761" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="D2761" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E2761" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2761"/>
+  <dimension ref="A1:E2779"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47137,6 +47137,312 @@
         <v>1.21</v>
       </c>
     </row>
+    <row r="2762">
+      <c r="A2762" s="4" t="n">
+        <v>44613</v>
+      </c>
+      <c r="B2762" t="n">
+        <v>10102.97</v>
+      </c>
+      <c r="C2762" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="D2762" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E2762" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="2763">
+      <c r="A2763" s="4" t="n">
+        <v>44614</v>
+      </c>
+      <c r="B2763" t="n">
+        <v>10021.1</v>
+      </c>
+      <c r="C2763" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="D2763" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E2763" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="2764">
+      <c r="A2764" s="4" t="n">
+        <v>44615</v>
+      </c>
+      <c r="B2764" t="n">
+        <v>10054.27</v>
+      </c>
+      <c r="C2764" t="n">
+        <v>25.32</v>
+      </c>
+      <c r="D2764" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E2764" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="2765">
+      <c r="A2765" s="4" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B2765" t="n">
+        <v>9435.07</v>
+      </c>
+      <c r="C2765" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="D2765" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E2765" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="2766">
+      <c r="A2766" s="4" t="n">
+        <v>44617</v>
+      </c>
+      <c r="B2766" t="n">
+        <v>9862.200000000001</v>
+      </c>
+      <c r="C2766" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="D2766" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E2766" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="2767">
+      <c r="A2767" s="4" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B2767" t="n">
+        <v>9957.15</v>
+      </c>
+      <c r="C2767" t="n">
+        <v>25.05</v>
+      </c>
+      <c r="D2767" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E2767" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="2768">
+      <c r="A2768" s="4" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B2768" t="n">
+        <v>9935.26</v>
+      </c>
+      <c r="C2768" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2768" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E2768" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="2769">
+      <c r="A2769" s="4" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B2769" t="n">
+        <v>9855.93</v>
+      </c>
+      <c r="C2769" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="D2769" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E2769" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="2770">
+      <c r="A2770" s="4" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B2770" t="n">
+        <v>9628.040000000001</v>
+      </c>
+      <c r="C2770" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="D2770" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="E2770" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="2771">
+      <c r="A2771" s="4" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B2771" t="n">
+        <v>9416.5</v>
+      </c>
+      <c r="C2771" t="n">
+        <v>23.69</v>
+      </c>
+      <c r="D2771" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E2771" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="2772">
+      <c r="A2772" s="4" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B2772" t="n">
+        <v>9565.969999999999</v>
+      </c>
+      <c r="C2772" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="D2772" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E2772" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="2773">
+      <c r="A2773" s="4" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B2773" t="n">
+        <v>9780.309999999999</v>
+      </c>
+      <c r="C2773" t="n">
+        <v>24.61</v>
+      </c>
+      <c r="D2773" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="E2773" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="2774">
+      <c r="A2774" s="4" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B2774" t="n">
+        <v>9847.549999999999</v>
+      </c>
+      <c r="C2774" t="n">
+        <v>24.78</v>
+      </c>
+      <c r="D2774" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E2774" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="2775">
+      <c r="A2775" s="4" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B2775" t="n">
+        <v>9919.200000000001</v>
+      </c>
+      <c r="C2775" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="D2775" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E2775" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="2776">
+      <c r="A2776" s="4" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B2776" t="n">
+        <v>9954.77</v>
+      </c>
+      <c r="C2776" t="n">
+        <v>25.04</v>
+      </c>
+      <c r="D2776" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E2776" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="2777">
+      <c r="A2777" s="4" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B2777" t="n">
+        <v>9870.549999999999</v>
+      </c>
+      <c r="C2777" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="D2777" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E2777" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="2778">
+      <c r="A2778" s="4" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B2778" t="n">
+        <v>10070.77</v>
+      </c>
+      <c r="C2778" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="D2778" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E2778" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="2779">
+      <c r="A2779" s="4" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B2779" t="n">
+        <v>10214.08</v>
+      </c>
+      <c r="C2779" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="D2779" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E2779" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2779"/>
+  <dimension ref="A1:E2811"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47443,6 +47443,550 @@
         <v>1.35</v>
       </c>
     </row>
+    <row r="2780">
+      <c r="A2780" s="4" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B2780" t="n">
+        <v>10143.68</v>
+      </c>
+      <c r="C2780" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="D2780" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E2780" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="2781">
+      <c r="A2781" s="4" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B2781" t="n">
+        <v>10184.64</v>
+      </c>
+      <c r="C2781" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="D2781" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E2781" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="A2782" s="4" t="n">
+        <v>44643</v>
+      </c>
+      <c r="B2782" t="n">
+        <v>10237.81</v>
+      </c>
+      <c r="C2782" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="D2782" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E2782" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="2783">
+      <c r="A2783" s="4" t="n">
+        <v>44644</v>
+      </c>
+      <c r="B2783" t="n">
+        <v>10317.08</v>
+      </c>
+      <c r="C2783" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="D2783" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E2783" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2784">
+      <c r="A2784" s="4" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B2784" t="n">
+        <v>10277.85</v>
+      </c>
+      <c r="C2784" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="D2784" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E2784" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="2785">
+      <c r="A2785" s="4" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B2785" t="n">
+        <v>10225.26</v>
+      </c>
+      <c r="C2785" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="D2785" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E2785" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="2786">
+      <c r="A2786" s="4" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B2786" t="n">
+        <v>10263.37</v>
+      </c>
+      <c r="C2786" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="D2786" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E2786" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="2787">
+      <c r="A2787" s="4" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B2787" t="n">
+        <v>10374.56</v>
+      </c>
+      <c r="C2787" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="D2787" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E2787" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="A2788" s="4" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B2788" t="n">
+        <v>10440.43</v>
+      </c>
+      <c r="C2788" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="D2788" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E2788" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="A2789" s="4" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B2789" t="n">
+        <v>10599.85</v>
+      </c>
+      <c r="C2789" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="D2789" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E2789" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" s="4" t="n">
+        <v>44655</v>
+      </c>
+      <c r="B2790" t="n">
+        <v>10747.54</v>
+      </c>
+      <c r="C2790" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D2790" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E2790" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" s="4" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B2791" t="n">
+        <v>10864.88</v>
+      </c>
+      <c r="C2791" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="D2791" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E2791" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2792">
+      <c r="A2792" s="4" t="n">
+        <v>44657</v>
+      </c>
+      <c r="B2792" t="n">
+        <v>10925.48</v>
+      </c>
+      <c r="C2792" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="D2792" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E2792" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="2793">
+      <c r="A2793" s="4" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B2793" t="n">
+        <v>10858.3</v>
+      </c>
+      <c r="C2793" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="D2793" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E2793" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="2794">
+      <c r="A2794" s="4" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B2794" t="n">
+        <v>10955.54</v>
+      </c>
+      <c r="C2794" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="D2794" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E2794" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="2795">
+      <c r="A2795" s="4" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B2795" t="n">
+        <v>10994.49</v>
+      </c>
+      <c r="C2795" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="D2795" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="E2795" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="2796">
+      <c r="A2796" s="4" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B2796" t="n">
+        <v>10802.46</v>
+      </c>
+      <c r="C2796" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="D2796" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="E2796" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="2797">
+      <c r="A2797" s="4" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B2797" t="n">
+        <v>10787</v>
+      </c>
+      <c r="C2797" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="D2797" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="E2797" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="2798">
+      <c r="A2798" s="4" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B2798" t="n">
+        <v>10655.37</v>
+      </c>
+      <c r="C2798" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D2798" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E2798" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="2799">
+      <c r="A2799" s="4" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B2799" t="n">
+        <v>10529.17</v>
+      </c>
+      <c r="C2799" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="D2799" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E2799" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="2800">
+      <c r="A2800" s="4" t="n">
+        <v>44671</v>
+      </c>
+      <c r="B2800" t="n">
+        <v>10581.13</v>
+      </c>
+      <c r="C2800" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="D2800" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E2800" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="2801">
+      <c r="A2801" s="4" t="n">
+        <v>44672</v>
+      </c>
+      <c r="B2801" t="n">
+        <v>10699.37</v>
+      </c>
+      <c r="C2801" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="D2801" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E2801" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="2802">
+      <c r="A2802" s="4" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B2802" t="n">
+        <v>10588.44</v>
+      </c>
+      <c r="C2802" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="D2802" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E2802" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="2803">
+      <c r="A2803" s="4" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B2803" t="n">
+        <v>10360.81</v>
+      </c>
+      <c r="C2803" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="D2803" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E2803" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="2804">
+      <c r="A2804" s="4" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B2804" t="n">
+        <v>10552.68</v>
+      </c>
+      <c r="C2804" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="D2804" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E2804" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="2805">
+      <c r="A2805" s="4" t="n">
+        <v>44678</v>
+      </c>
+      <c r="B2805" t="n">
+        <v>10455.01</v>
+      </c>
+      <c r="C2805" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="D2805" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E2805" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="2806">
+      <c r="A2806" s="4" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B2806" t="n">
+        <v>10518.85</v>
+      </c>
+      <c r="C2806" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="D2806" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E2806" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="2807">
+      <c r="A2807" s="4" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B2807" t="n">
+        <v>10421.79</v>
+      </c>
+      <c r="C2807" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="D2807" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E2807" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="A2808" s="4" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B2808" t="n">
+        <v>10359.63</v>
+      </c>
+      <c r="C2808" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="D2808" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E2808" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="2809">
+      <c r="A2809" s="4" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B2809" t="n">
+        <v>10121.78</v>
+      </c>
+      <c r="C2809" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="D2809" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E2809" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="2810">
+      <c r="A2810" s="4" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B2810" t="n">
+        <v>10170.74</v>
+      </c>
+      <c r="C2810" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="D2810" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E2810" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="2811">
+      <c r="A2811" s="4" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B2811" t="n">
+        <v>9979.33</v>
+      </c>
+      <c r="C2811" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="D2811" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="E2811" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2811"/>
+  <dimension ref="A1:E2821"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47987,6 +47987,176 @@
         <v>1.42</v>
       </c>
     </row>
+    <row r="2812">
+      <c r="A2812" s="4" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B2812" t="n">
+        <v>9783.99</v>
+      </c>
+      <c r="C2812" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="D2812" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E2812" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="2813">
+      <c r="A2813" s="4" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B2813" t="n">
+        <v>9611.41</v>
+      </c>
+      <c r="C2813" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="D2813" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="E2813" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="2814">
+      <c r="A2814" s="4" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B2814" t="n">
+        <v>9567.799999999999</v>
+      </c>
+      <c r="C2814" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D2814" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E2814" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="2815">
+      <c r="A2815" s="4" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B2815" t="n">
+        <v>9335.040000000001</v>
+      </c>
+      <c r="C2815" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="D2815" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E2815" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" s="4" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B2816" t="n">
+        <v>9379.58</v>
+      </c>
+      <c r="C2816" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="D2816" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="E2816" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="2817">
+      <c r="A2817" s="4" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B2817" t="n">
+        <v>9528.860000000001</v>
+      </c>
+      <c r="C2817" t="n">
+        <v>19.15</v>
+      </c>
+      <c r="D2817" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="E2817" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="2818">
+      <c r="A2818" s="4" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B2818" t="n">
+        <v>9775.35</v>
+      </c>
+      <c r="C2818" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="D2818" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E2818" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="2819">
+      <c r="A2819" s="4" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B2819" t="n">
+        <v>9756.83</v>
+      </c>
+      <c r="C2819" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="D2819" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="E2819" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="2820">
+      <c r="A2820" s="4" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B2820" t="n">
+        <v>9469.93</v>
+      </c>
+      <c r="C2820" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="D2820" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="E2820" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="2821">
+      <c r="A2821" s="4" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B2821" t="n">
+        <v>9685.639999999999</v>
+      </c>
+      <c r="C2821" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="D2821" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E2821" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2821"/>
+  <dimension ref="A1:E2826"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48157,6 +48157,91 @@
         <v>1.46</v>
       </c>
     </row>
+    <row r="2822">
+      <c r="A2822" s="4" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B2822" t="n">
+        <v>9657.58</v>
+      </c>
+      <c r="C2822" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="D2822" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E2822" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="2823">
+      <c r="A2823" s="4" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B2823" t="n">
+        <v>9612.17</v>
+      </c>
+      <c r="C2823" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="D2823" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E2823" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" s="4" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B2824" t="n">
+        <v>9436.200000000001</v>
+      </c>
+      <c r="C2824" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="D2824" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="E2824" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="2825">
+      <c r="A2825" s="4" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B2825" t="n">
+        <v>9554.690000000001</v>
+      </c>
+      <c r="C2825" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="D2825" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E2825" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="2826">
+      <c r="A2826" s="4" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B2826" t="n">
+        <v>9689.440000000001</v>
+      </c>
+      <c r="C2826" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="D2826" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E2826" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2826"/>
+  <dimension ref="A1:E2836"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48242,6 +48242,176 @@
         <v>1.47</v>
       </c>
     </row>
+    <row r="2827">
+      <c r="A2827" s="4" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B2827" t="n">
+        <v>9897.75</v>
+      </c>
+      <c r="C2827" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="D2827" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E2827" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="2828">
+      <c r="A2828" s="4" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B2828" t="n">
+        <v>9930.879999999999</v>
+      </c>
+      <c r="C2828" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="D2828" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="E2828" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="2829">
+      <c r="A2829" s="4" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B2829" t="n">
+        <v>9949.16</v>
+      </c>
+      <c r="C2829" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="D2829" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E2829" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="2830">
+      <c r="A2830" s="4" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B2830" t="n">
+        <v>10000.59</v>
+      </c>
+      <c r="C2830" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="D2830" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="E2830" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="2831">
+      <c r="A2831" s="4" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B2831" t="n">
+        <v>9840.17</v>
+      </c>
+      <c r="C2831" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="D2831" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E2831" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="2832">
+      <c r="A2832" s="4" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B2832" t="n">
+        <v>9795.99</v>
+      </c>
+      <c r="C2832" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D2832" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E2832" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="2833">
+      <c r="A2833" s="4" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B2833" t="n">
+        <v>9725.33</v>
+      </c>
+      <c r="C2833" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="D2833" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="E2833" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="2834">
+      <c r="A2834" s="4" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B2834" t="n">
+        <v>9705.110000000001</v>
+      </c>
+      <c r="C2834" t="n">
+        <v/>
+      </c>
+      <c r="D2834" t="n">
+        <v/>
+      </c>
+      <c r="E2834" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="2835">
+      <c r="A2835" s="4" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B2835" t="n">
+        <v>9753.26</v>
+      </c>
+      <c r="C2835" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="D2835" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="E2835" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="2836">
+      <c r="A2836" s="4" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B2836" t="n">
+        <v>9687.389999999999</v>
+      </c>
+      <c r="C2836" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="D2836" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E2836" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2836"/>
+  <dimension ref="A1:E2880"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48368,15 +48368,6 @@
       <c r="B2834" t="n">
         <v>9705.110000000001</v>
       </c>
-      <c r="C2834" t="n">
-        <v/>
-      </c>
-      <c r="D2834" t="n">
-        <v/>
-      </c>
-      <c r="E2834" t="n">
-        <v/>
-      </c>
     </row>
     <row r="2835">
       <c r="A2835" s="4" t="n">
@@ -48410,6 +48401,754 @@
       </c>
       <c r="E2836" t="n">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="2837">
+      <c r="A2837" s="4" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B2837" t="n">
+        <v>9393.219999999999</v>
+      </c>
+      <c r="C2837" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D2837" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="E2837" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="2838">
+      <c r="A2838" s="4" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B2838" t="n">
+        <v>9380.17</v>
+      </c>
+      <c r="C2838" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="D2838" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="E2838" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="2839">
+      <c r="A2839" s="4" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B2839" t="n">
+        <v>9429.98</v>
+      </c>
+      <c r="C2839" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D2839" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="E2839" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="2840">
+      <c r="A2840" s="4" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B2840" t="n">
+        <v>9199.24</v>
+      </c>
+      <c r="C2840" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="D2840" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E2840" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="2841">
+      <c r="A2841" s="4" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B2841" t="n">
+        <v>9150.629999999999</v>
+      </c>
+      <c r="C2841" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="D2841" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E2841" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="2842">
+      <c r="A2842" s="4" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B2842" t="n">
+        <v>8989.790000000001</v>
+      </c>
+      <c r="C2842" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="D2842" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E2842" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="2843">
+      <c r="A2843" s="4" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B2843" t="n">
+        <v>9244.5</v>
+      </c>
+      <c r="C2843" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="D2843" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E2843" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="2844">
+      <c r="A2844" s="4" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B2844" t="n">
+        <v>9101.530000000001</v>
+      </c>
+      <c r="C2844" t="n">
+        <v>17.96</v>
+      </c>
+      <c r="D2844" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E2844" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="2845">
+      <c r="A2845" s="4" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B2845" t="n">
+        <v>9220.73</v>
+      </c>
+      <c r="C2845" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="D2845" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E2845" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="2846">
+      <c r="A2846" s="4" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B2846" t="n">
+        <v>9350.85</v>
+      </c>
+      <c r="C2846" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="D2846" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E2846" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="2847">
+      <c r="A2847" s="4" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B2847" t="n">
+        <v>9448.75</v>
+      </c>
+      <c r="C2847" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="D2847" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="E2847" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="2848">
+      <c r="A2848" s="4" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B2848" t="n">
+        <v>9459.6</v>
+      </c>
+      <c r="C2848" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="D2848" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="E2848" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="2849">
+      <c r="A2849" s="4" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B2849" t="n">
+        <v>9409.09</v>
+      </c>
+      <c r="C2849" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="D2849" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="E2849" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="2850">
+      <c r="A2850" s="4" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2850" t="n">
+        <v>9330.049999999999</v>
+      </c>
+      <c r="C2850" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="D2850" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E2850" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="2851">
+      <c r="A2851" s="4" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B2851" t="n">
+        <v>9404.610000000001</v>
+      </c>
+      <c r="C2851" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="D2851" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="E2851" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="2852">
+      <c r="A2852" s="4" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2852" t="n">
+        <v>9493.940000000001</v>
+      </c>
+      <c r="C2852" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="D2852" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E2852" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="2853">
+      <c r="A2853" s="4" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B2853" t="n">
+        <v>9471.09</v>
+      </c>
+      <c r="C2853" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="D2853" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="E2853" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="2854">
+      <c r="A2854" s="4" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B2854" t="n">
+        <v>9677.16</v>
+      </c>
+      <c r="C2854" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D2854" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E2854" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2855">
+      <c r="A2855" s="4" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B2855" t="n">
+        <v>9792.51</v>
+      </c>
+      <c r="C2855" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="D2855" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E2855" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="2856">
+      <c r="A2856" s="4" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B2856" t="n">
+        <v>9813.440000000001</v>
+      </c>
+      <c r="C2856" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="D2856" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="E2856" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="2857">
+      <c r="A2857" s="4" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B2857" t="n">
+        <v>9844.219999999999</v>
+      </c>
+      <c r="C2857" t="n">
+        <v>19.43</v>
+      </c>
+      <c r="D2857" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E2857" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="2858">
+      <c r="A2858" s="4" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B2858" t="n">
+        <v>9765.940000000001</v>
+      </c>
+      <c r="C2858" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="D2858" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E2858" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="2859">
+      <c r="A2859" s="4" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B2859" t="n">
+        <v>9810.940000000001</v>
+      </c>
+      <c r="C2859" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="D2859" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="E2859" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="2860">
+      <c r="A2860" s="4" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B2860" t="n">
+        <v>9800.65</v>
+      </c>
+      <c r="C2860" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="D2860" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E2860" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="2861">
+      <c r="A2861" s="4" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2861" t="n">
+        <v>9886.209999999999</v>
+      </c>
+      <c r="C2861" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D2861" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="E2861" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="2862">
+      <c r="A2862" s="4" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B2862" t="n">
+        <v>10048.65</v>
+      </c>
+      <c r="C2862" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="D2862" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E2862" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="2863">
+      <c r="A2863" s="4" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B2863" t="n">
+        <v>10115.25</v>
+      </c>
+      <c r="C2863" t="n">
+        <v>19.82</v>
+      </c>
+      <c r="D2863" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="E2863" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="2864">
+      <c r="A2864" s="4" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B2864" t="n">
+        <v>10136.97</v>
+      </c>
+      <c r="C2864" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="D2864" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E2864" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="2865">
+      <c r="A2865" s="4" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B2865" t="n">
+        <v>10288.8</v>
+      </c>
+      <c r="C2865" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="D2865" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="E2865" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="2866">
+      <c r="A2866" s="4" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B2866" t="n">
+        <v>10305.72</v>
+      </c>
+      <c r="C2866" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="D2866" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="E2866" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="2867">
+      <c r="A2867" s="4" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B2867" t="n">
+        <v>10307.16</v>
+      </c>
+      <c r="C2867" t="n">
+        <v>20.12</v>
+      </c>
+      <c r="D2867" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="E2867" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="2868">
+      <c r="A2868" s="4" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B2868" t="n">
+        <v>10179.84</v>
+      </c>
+      <c r="C2868" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="D2868" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E2868" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="2869">
+      <c r="A2869" s="4" t="n">
+        <v>44769</v>
+      </c>
+      <c r="B2869" t="n">
+        <v>10262.37</v>
+      </c>
+      <c r="C2869" t="n">
+        <v>19.82</v>
+      </c>
+      <c r="D2869" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E2869" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="2870">
+      <c r="A2870" s="4" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B2870" t="n">
+        <v>10345.17</v>
+      </c>
+      <c r="C2870" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="D2870" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E2870" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="2871">
+      <c r="A2871" s="4" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B2871" t="n">
+        <v>10476.34</v>
+      </c>
+      <c r="C2871" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="D2871" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E2871" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="2872">
+      <c r="A2872" s="4" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B2872" t="n">
+        <v>10642.65</v>
+      </c>
+      <c r="C2872" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="D2872" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E2872" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" s="4" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B2873" t="n">
+        <v>10672.05</v>
+      </c>
+      <c r="C2873" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="D2873" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2873" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" s="4" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B2874" t="n">
+        <v>10543.98</v>
+      </c>
+      <c r="C2874" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="D2874" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E2874" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="2875">
+      <c r="A2875" s="4" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B2875" t="n">
+        <v>10547.73</v>
+      </c>
+      <c r="C2875" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="D2875" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E2875" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2876">
+      <c r="A2876" s="4" t="n">
+        <v>44778</v>
+      </c>
+      <c r="B2876" t="n">
+        <v>10557.07</v>
+      </c>
+      <c r="C2876" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="D2876" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E2876" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2877">
+      <c r="A2877" s="4" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B2877" t="n">
+        <v>10601.65</v>
+      </c>
+      <c r="C2877" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="D2877" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E2877" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="2878">
+      <c r="A2878" s="4" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B2878" t="n">
+        <v>10588.17</v>
+      </c>
+      <c r="C2878" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="D2878" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E2878" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" s="4" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B2879" t="n">
+        <v>10684.94</v>
+      </c>
+      <c r="C2879" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="D2879" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E2879" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="2880">
+      <c r="A2880" s="4" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B2880" t="n">
+        <v>10730.63</v>
+      </c>
+      <c r="C2880" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="D2880" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E2880" t="n">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2880"/>
+  <dimension ref="A1:E2917"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49151,6 +49151,635 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="2881">
+      <c r="A2881" s="4" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B2881" t="n">
+        <v>10856.07</v>
+      </c>
+      <c r="C2881" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="D2881" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E2881" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="2882">
+      <c r="A2882" s="4" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B2882" t="n">
+        <v>10921.82</v>
+      </c>
+      <c r="C2882" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="D2882" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E2882" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="2883">
+      <c r="A2883" s="4" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B2883" t="n">
+        <v>10955.55</v>
+      </c>
+      <c r="C2883" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="D2883" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E2883" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="2884">
+      <c r="A2884" s="4" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B2884" t="n">
+        <v>10825.78</v>
+      </c>
+      <c r="C2884" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="D2884" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E2884" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="2885">
+      <c r="A2885" s="4" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B2885" t="n">
+        <v>10606.95</v>
+      </c>
+      <c r="C2885" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="D2885" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E2885" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="2886">
+      <c r="A2886" s="4" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B2886" t="n">
+        <v>10734.99</v>
+      </c>
+      <c r="C2886" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="D2886" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="E2886" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="2887">
+      <c r="A2887" s="4" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B2887" t="n">
+        <v>10813.79</v>
+      </c>
+      <c r="C2887" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="D2887" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="E2887" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="2888">
+      <c r="A2888" s="4" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B2888" t="n">
+        <v>10828.87</v>
+      </c>
+      <c r="C2888" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="D2888" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E2888" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="2889">
+      <c r="A2889" s="4" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B2889" t="n">
+        <v>10888.69</v>
+      </c>
+      <c r="C2889" t="n">
+        <v>21.63</v>
+      </c>
+      <c r="D2889" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E2889" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2890">
+      <c r="A2890" s="4" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B2890" t="n">
+        <v>10781.21</v>
+      </c>
+      <c r="C2890" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="D2890" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E2890" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="2891">
+      <c r="A2891" s="4" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B2891" t="n">
+        <v>10988.52</v>
+      </c>
+      <c r="C2891" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="D2891" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E2891" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="2892">
+      <c r="A2892" s="4" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B2892" t="n">
+        <v>11047.39</v>
+      </c>
+      <c r="C2892" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D2892" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="E2892" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="2893">
+      <c r="A2893" s="4" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B2893" t="n">
+        <v>11032.77</v>
+      </c>
+      <c r="C2893" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="D2893" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E2893" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="2894">
+      <c r="A2894" s="4" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B2894" t="n">
+        <v>11087.88</v>
+      </c>
+      <c r="C2894" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="D2894" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E2894" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="2895">
+      <c r="A2895" s="4" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B2895" t="n">
+        <v>11115.26</v>
+      </c>
+      <c r="C2895" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="D2895" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E2895" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="2896">
+      <c r="A2896" s="4" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B2896" t="n">
+        <v>11177.06</v>
+      </c>
+      <c r="C2896" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="D2896" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2896" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="2897">
+      <c r="A2897" s="4" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B2897" t="n">
+        <v>11195.16</v>
+      </c>
+      <c r="C2897" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="D2897" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E2897" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2898">
+      <c r="A2898" s="4" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B2898" t="n">
+        <v>11222.78</v>
+      </c>
+      <c r="C2898" t="n">
+        <v>22.34</v>
+      </c>
+      <c r="D2898" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E2898" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2899">
+      <c r="A2899" s="4" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B2899" t="n">
+        <v>11332.54</v>
+      </c>
+      <c r="C2899" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="D2899" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E2899" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="2900">
+      <c r="A2900" s="4" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B2900" t="n">
+        <v>11342.76</v>
+      </c>
+      <c r="C2900" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="D2900" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E2900" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="2901">
+      <c r="A2901" s="4" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B2901" t="n">
+        <v>11299.98</v>
+      </c>
+      <c r="C2901" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="D2901" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E2901" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="2902">
+      <c r="A2902" s="4" t="n">
+        <v>44819</v>
+      </c>
+      <c r="B2902" t="n">
+        <v>11352.61</v>
+      </c>
+      <c r="C2902" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="D2902" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E2902" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="2903">
+      <c r="A2903" s="4" t="n">
+        <v>44820</v>
+      </c>
+      <c r="B2903" t="n">
+        <v>11018.72</v>
+      </c>
+      <c r="C2903" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="D2903" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E2903" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="2904">
+      <c r="A2904" s="4" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B2904" t="n">
+        <v>11021.53</v>
+      </c>
+      <c r="C2904" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="D2904" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E2904" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="2905">
+      <c r="A2905" s="4" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B2905" t="n">
+        <v>11162.21</v>
+      </c>
+      <c r="C2905" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D2905" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E2905" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="2906">
+      <c r="A2906" s="4" t="n">
+        <v>44825</v>
+      </c>
+      <c r="B2906" t="n">
+        <v>11094.5</v>
+      </c>
+      <c r="C2906" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="D2906" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E2906" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="2907">
+      <c r="A2907" s="4" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B2907" t="n">
+        <v>11137.18</v>
+      </c>
+      <c r="C2907" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="D2907" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E2907" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="A2908" s="4" t="n">
+        <v>44827</v>
+      </c>
+      <c r="B2908" t="n">
+        <v>10838.35</v>
+      </c>
+      <c r="C2908" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="D2908" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E2908" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" s="4" t="n">
+        <v>44830</v>
+      </c>
+      <c r="B2909" t="n">
+        <v>10511.31</v>
+      </c>
+      <c r="C2909" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D2909" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="E2909" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="A2910" s="4" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B2910" t="n">
+        <v>10521.21</v>
+      </c>
+      <c r="C2910" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="D2910" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="E2910" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="2911">
+      <c r="A2911" s="4" t="n">
+        <v>44832</v>
+      </c>
+      <c r="B2911" t="n">
+        <v>10467.91</v>
+      </c>
+      <c r="C2911" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="D2911" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="E2911" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="2912">
+      <c r="A2912" s="4" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B2912" t="n">
+        <v>10517.93</v>
+      </c>
+      <c r="C2912" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="D2912" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="E2912" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="A2913" s="4" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B2913" t="n">
+        <v>10714.81</v>
+      </c>
+      <c r="C2913" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="D2913" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2913" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="2914">
+      <c r="A2914" s="4" t="n">
+        <v>44837</v>
+      </c>
+      <c r="B2914" t="n">
+        <v>10577.52</v>
+      </c>
+      <c r="C2914" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="D2914" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="E2914" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="A2915" s="4" t="n">
+        <v>44838</v>
+      </c>
+      <c r="B2915" t="n">
+        <v>10905.69</v>
+      </c>
+      <c r="C2915" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="D2915" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E2915" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="2916">
+      <c r="A2916" s="4" t="n">
+        <v>44840</v>
+      </c>
+      <c r="B2916" t="n">
+        <v>11032.17</v>
+      </c>
+      <c r="C2916" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="D2916" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E2916" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="A2917" s="4" t="n">
+        <v>44841</v>
+      </c>
+      <c r="B2917" t="n">
+        <v>11005.55</v>
+      </c>
+      <c r="C2917" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="D2917" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E2917" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2917"/>
+  <dimension ref="A1:E2945"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49780,6 +49780,482 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="2918">
+      <c r="A2918" s="4" t="n">
+        <v>44844</v>
+      </c>
+      <c r="B2918" t="n">
+        <v>10908.26</v>
+      </c>
+      <c r="C2918" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="D2918" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E2918" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" s="4" t="n">
+        <v>44845</v>
+      </c>
+      <c r="B2919" t="n">
+        <v>10725.28</v>
+      </c>
+      <c r="C2919" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="D2919" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2919" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="2920">
+      <c r="A2920" s="4" t="n">
+        <v>44846</v>
+      </c>
+      <c r="B2920" t="n">
+        <v>10809.19</v>
+      </c>
+      <c r="C2920" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="D2920" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="E2920" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="A2921" s="4" t="n">
+        <v>44847</v>
+      </c>
+      <c r="B2921" t="n">
+        <v>10708.96</v>
+      </c>
+      <c r="C2921" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="D2921" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="E2921" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="2922">
+      <c r="A2922" s="4" t="n">
+        <v>44848</v>
+      </c>
+      <c r="B2922" t="n">
+        <v>10706.65</v>
+      </c>
+      <c r="C2922" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D2922" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="E2922" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="2923">
+      <c r="A2923" s="4" t="n">
+        <v>44851</v>
+      </c>
+      <c r="B2923" t="n">
+        <v>10782.17</v>
+      </c>
+      <c r="C2923" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="D2923" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="E2923" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="2924">
+      <c r="A2924" s="4" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B2924" t="n">
+        <v>10954.14</v>
+      </c>
+      <c r="C2924" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="D2924" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E2924" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="2925">
+      <c r="A2925" s="4" t="n">
+        <v>44853</v>
+      </c>
+      <c r="B2925" t="n">
+        <v>10955.71</v>
+      </c>
+      <c r="C2925" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2925" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E2925" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="2926">
+      <c r="A2926" s="4" t="n">
+        <v>44854</v>
+      </c>
+      <c r="B2926" t="n">
+        <v>10909.81</v>
+      </c>
+      <c r="C2926" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="D2926" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E2926" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="2927">
+      <c r="A2927" s="4" t="n">
+        <v>44855</v>
+      </c>
+      <c r="B2927" t="n">
+        <v>10875.8</v>
+      </c>
+      <c r="C2927" t="n">
+        <v/>
+      </c>
+      <c r="D2927" t="n">
+        <v/>
+      </c>
+      <c r="E2927" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="2928">
+      <c r="A2928" s="4" t="n">
+        <v>44858</v>
+      </c>
+      <c r="B2928" t="n">
+        <v>10925.72</v>
+      </c>
+      <c r="C2928" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="D2928" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E2928" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="2929">
+      <c r="A2929" s="4" t="n">
+        <v>44859</v>
+      </c>
+      <c r="B2929" t="n">
+        <v>10977.58</v>
+      </c>
+      <c r="C2929" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="D2929" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E2929" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="2930">
+      <c r="A2930" s="4" t="n">
+        <v>44861</v>
+      </c>
+      <c r="B2930" t="n">
+        <v>11063.56</v>
+      </c>
+      <c r="C2930" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="D2930" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E2930" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2931">
+      <c r="A2931" s="4" t="n">
+        <v>44862</v>
+      </c>
+      <c r="B2931" t="n">
+        <v>11035</v>
+      </c>
+      <c r="C2931" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="D2931" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E2931" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2932">
+      <c r="A2932" s="4" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B2932" t="n">
+        <v>11175.27</v>
+      </c>
+      <c r="C2932" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="D2932" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E2932" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="A2933" s="4" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B2933" t="n">
+        <v>11267.98</v>
+      </c>
+      <c r="C2933" t="n">
+        <v/>
+      </c>
+      <c r="D2933" t="n">
+        <v/>
+      </c>
+      <c r="E2933" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="2934">
+      <c r="A2934" s="4" t="n">
+        <v>44867</v>
+      </c>
+      <c r="B2934" t="n">
+        <v>11242.93</v>
+      </c>
+      <c r="C2934" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="D2934" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E2934" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="2935">
+      <c r="A2935" s="4" t="n">
+        <v>44868</v>
+      </c>
+      <c r="B2935" t="n">
+        <v>11284.88</v>
+      </c>
+      <c r="C2935" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="D2935" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E2935" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="2936">
+      <c r="A2936" s="4" t="n">
+        <v>44869</v>
+      </c>
+      <c r="B2936" t="n">
+        <v>11248.8</v>
+      </c>
+      <c r="C2936" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="D2936" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E2936" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="2937">
+      <c r="A2937" s="4" t="n">
+        <v>44872</v>
+      </c>
+      <c r="B2937" t="n">
+        <v>11348.85</v>
+      </c>
+      <c r="C2937" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="D2937" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E2937" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="2938">
+      <c r="A2938" s="4" t="n">
+        <v>44874</v>
+      </c>
+      <c r="B2938" t="n">
+        <v>11265.9</v>
+      </c>
+      <c r="C2938" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="D2938" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E2938" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="2939">
+      <c r="A2939" s="4" t="n">
+        <v>44875</v>
+      </c>
+      <c r="B2939" t="n">
+        <v>11156.22</v>
+      </c>
+      <c r="C2939" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="D2939" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E2939" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="2940">
+      <c r="A2940" s="4" t="n">
+        <v>44876</v>
+      </c>
+      <c r="B2940" t="n">
+        <v>11163.39</v>
+      </c>
+      <c r="C2940" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="D2940" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E2940" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="2941">
+      <c r="A2941" s="4" t="n">
+        <v>44879</v>
+      </c>
+      <c r="B2941" t="n">
+        <v>11160.77</v>
+      </c>
+      <c r="C2941" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="D2941" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E2941" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="2942">
+      <c r="A2942" s="4" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B2942" t="n">
+        <v>11156.73</v>
+      </c>
+      <c r="C2942" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="D2942" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E2942" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="2943">
+      <c r="A2943" s="4" t="n">
+        <v>44881</v>
+      </c>
+      <c r="B2943" t="n">
+        <v>11056.37</v>
+      </c>
+      <c r="C2943" t="n">
+        <v>24.04</v>
+      </c>
+      <c r="D2943" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E2943" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="2944">
+      <c r="A2944" s="4" t="n">
+        <v>44882</v>
+      </c>
+      <c r="B2944" t="n">
+        <v>11038.92</v>
+      </c>
+      <c r="C2944" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2944" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E2944" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="2945">
+      <c r="A2945" s="4" t="n">
+        <v>44883</v>
+      </c>
+      <c r="B2945" t="n">
+        <v>10983.09</v>
+      </c>
+      <c r="C2945" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="D2945" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E2945" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2945"/>
+  <dimension ref="A1:E2950"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49940,15 +49940,6 @@
       <c r="B2927" t="n">
         <v>10875.8</v>
       </c>
-      <c r="C2927" t="n">
-        <v/>
-      </c>
-      <c r="D2927" t="n">
-        <v/>
-      </c>
-      <c r="E2927" t="n">
-        <v/>
-      </c>
     </row>
     <row r="2928">
       <c r="A2928" s="4" t="n">
@@ -50042,15 +50033,6 @@
       <c r="B2933" t="n">
         <v>11267.98</v>
       </c>
-      <c r="C2933" t="n">
-        <v/>
-      </c>
-      <c r="D2933" t="n">
-        <v/>
-      </c>
-      <c r="E2933" t="n">
-        <v/>
-      </c>
     </row>
     <row r="2934">
       <c r="A2934" s="4" t="n">
@@ -50254,6 +50236,91 @@
       </c>
       <c r="E2945" t="n">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="2946">
+      <c r="A2946" s="4" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B2946" t="n">
+        <v>10979.15</v>
+      </c>
+      <c r="C2946" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="D2946" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E2946" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="2947">
+      <c r="A2947" s="4" t="n">
+        <v>44887</v>
+      </c>
+      <c r="B2947" t="n">
+        <v>11041.14</v>
+      </c>
+      <c r="C2947" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D2947" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E2947" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" s="4" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B2948" t="n">
+        <v>11098.52</v>
+      </c>
+      <c r="C2948" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="D2948" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E2948" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="2949">
+      <c r="A2949" s="4" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B2949" t="n">
+        <v>11157.02</v>
+      </c>
+      <c r="C2949" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="D2949" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E2949" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="2950">
+      <c r="A2950" s="4" t="n">
+        <v>44890</v>
+      </c>
+      <c r="B2950" t="n">
+        <v>11266.43</v>
+      </c>
+      <c r="C2950" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="D2950" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E2950" t="n">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2950"/>
+  <dimension ref="A1:E2986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50323,6 +50323,618 @@
         <v>1.42</v>
       </c>
     </row>
+    <row r="2951">
+      <c r="A2951" s="4" t="n">
+        <v>44893</v>
+      </c>
+      <c r="B2951" t="n">
+        <v>11330.07</v>
+      </c>
+      <c r="C2951" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="D2951" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E2951" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="2952">
+      <c r="A2952" s="4" t="n">
+        <v>44894</v>
+      </c>
+      <c r="B2952" t="n">
+        <v>11273.95</v>
+      </c>
+      <c r="C2952" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="D2952" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E2952" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="2953">
+      <c r="A2953" s="4" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B2953" t="n">
+        <v>11391.35</v>
+      </c>
+      <c r="C2953" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="D2953" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E2953" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="2954">
+      <c r="A2954" s="4" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B2954" t="n">
+        <v>11489.82</v>
+      </c>
+      <c r="C2954" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="D2954" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E2954" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="2955">
+      <c r="A2955" s="4" t="n">
+        <v>44897</v>
+      </c>
+      <c r="B2955" t="n">
+        <v>11569.57</v>
+      </c>
+      <c r="C2955" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="D2955" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E2955" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="2956">
+      <c r="A2956" s="4" t="n">
+        <v>44900</v>
+      </c>
+      <c r="B2956" t="n">
+        <v>11596.01</v>
+      </c>
+      <c r="C2956" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="D2956" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E2956" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="2957">
+      <c r="A2957" s="4" t="n">
+        <v>44901</v>
+      </c>
+      <c r="B2957" t="n">
+        <v>11536.44</v>
+      </c>
+      <c r="C2957" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="D2957" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="E2957" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="2958">
+      <c r="A2958" s="4" t="n">
+        <v>44902</v>
+      </c>
+      <c r="B2958" t="n">
+        <v>11474.16</v>
+      </c>
+      <c r="C2958" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="D2958" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E2958" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="2959">
+      <c r="A2959" s="4" t="n">
+        <v>44903</v>
+      </c>
+      <c r="B2959" t="n">
+        <v>11546.24</v>
+      </c>
+      <c r="C2959" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="D2959" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="E2959" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="2960">
+      <c r="A2960" s="4" t="n">
+        <v>44904</v>
+      </c>
+      <c r="B2960" t="n">
+        <v>11470.7</v>
+      </c>
+      <c r="C2960" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="D2960" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E2960" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="2961">
+      <c r="A2961" s="4" t="n">
+        <v>44907</v>
+      </c>
+      <c r="B2961" t="n">
+        <v>11526.4</v>
+      </c>
+      <c r="C2961" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="D2961" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="E2961" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="2962">
+      <c r="A2962" s="4" t="n">
+        <v>44908</v>
+      </c>
+      <c r="B2962" t="n">
+        <v>11572.34</v>
+      </c>
+      <c r="C2962" t="n">
+        <v>25.04</v>
+      </c>
+      <c r="D2962" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E2962" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="2963">
+      <c r="A2963" s="4" t="n">
+        <v>44909</v>
+      </c>
+      <c r="B2963" t="n">
+        <v>11667.24</v>
+      </c>
+      <c r="C2963" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="D2963" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="E2963" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="2964">
+      <c r="A2964" s="4" t="n">
+        <v>44910</v>
+      </c>
+      <c r="B2964" t="n">
+        <v>11554.07</v>
+      </c>
+      <c r="C2964" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2964" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E2964" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="2965">
+      <c r="A2965" s="4" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B2965" t="n">
+        <v>11360.21</v>
+      </c>
+      <c r="C2965" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="D2965" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E2965" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="2966">
+      <c r="A2966" s="4" t="n">
+        <v>44914</v>
+      </c>
+      <c r="B2966" t="n">
+        <v>11436.45</v>
+      </c>
+      <c r="C2966" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="D2966" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E2966" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="2967">
+      <c r="A2967" s="4" t="n">
+        <v>44915</v>
+      </c>
+      <c r="B2967" t="n">
+        <v>11396.84</v>
+      </c>
+      <c r="C2967" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="D2967" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E2967" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="2968">
+      <c r="A2968" s="4" t="n">
+        <v>44916</v>
+      </c>
+      <c r="B2968" t="n">
+        <v>11240.83</v>
+      </c>
+      <c r="C2968" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="D2968" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E2968" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="2969">
+      <c r="A2969" s="4" t="n">
+        <v>44917</v>
+      </c>
+      <c r="B2969" t="n">
+        <v>11180.74</v>
+      </c>
+      <c r="C2969" t="n">
+        <v>24.19</v>
+      </c>
+      <c r="D2969" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E2969" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="2970">
+      <c r="A2970" s="4" t="n">
+        <v>44918</v>
+      </c>
+      <c r="B2970" t="n">
+        <v>10805.74</v>
+      </c>
+      <c r="C2970" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="D2970" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="E2970" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="2971">
+      <c r="A2971" s="4" t="n">
+        <v>44921</v>
+      </c>
+      <c r="B2971" t="n">
+        <v>11056.36</v>
+      </c>
+      <c r="C2971" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="D2971" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E2971" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="2972">
+      <c r="A2972" s="4" t="n">
+        <v>44922</v>
+      </c>
+      <c r="B2972" t="n">
+        <v>11163.23</v>
+      </c>
+      <c r="C2972" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="D2972" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E2972" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="2973">
+      <c r="A2973" s="4" t="n">
+        <v>44923</v>
+      </c>
+      <c r="B2973" t="n">
+        <v>11189.14</v>
+      </c>
+      <c r="C2973" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="D2973" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E2973" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="2974">
+      <c r="A2974" s="4" t="n">
+        <v>44924</v>
+      </c>
+      <c r="B2974" t="n">
+        <v>11187.95</v>
+      </c>
+      <c r="C2974" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="D2974" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E2974" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="2975">
+      <c r="A2975" s="4" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B2975" t="n">
+        <v>11257.72</v>
+      </c>
+      <c r="C2975" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D2975" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E2975" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="2976">
+      <c r="A2976" s="4" t="n">
+        <v>44928</v>
+      </c>
+      <c r="B2976" t="n">
+        <v>11347.87</v>
+      </c>
+      <c r="C2976" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="D2976" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E2976" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="2977">
+      <c r="A2977" s="4" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B2977" t="n">
+        <v>11379.69</v>
+      </c>
+      <c r="C2977" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="D2977" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E2977" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="2978">
+      <c r="A2978" s="4" t="n">
+        <v>44930</v>
+      </c>
+      <c r="B2978" t="n">
+        <v>11254.04</v>
+      </c>
+      <c r="C2978" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="D2978" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E2978" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="2979">
+      <c r="A2979" s="4" t="n">
+        <v>44931</v>
+      </c>
+      <c r="B2979" t="n">
+        <v>11335</v>
+      </c>
+      <c r="C2979" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="D2979" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E2979" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="2980">
+      <c r="A2980" s="4" t="n">
+        <v>44932</v>
+      </c>
+      <c r="B2980" t="n">
+        <v>11262.55</v>
+      </c>
+      <c r="C2980" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D2980" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E2980" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="2981">
+      <c r="A2981" s="4" t="n">
+        <v>44935</v>
+      </c>
+      <c r="B2981" t="n">
+        <v>11358.61</v>
+      </c>
+      <c r="C2981" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="D2981" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E2981" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="2982">
+      <c r="A2982" s="4" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B2982" t="n">
+        <v>11306.26</v>
+      </c>
+      <c r="C2982" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="D2982" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E2982" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="2983">
+      <c r="A2983" s="4" t="n">
+        <v>44937</v>
+      </c>
+      <c r="B2983" t="n">
+        <v>11305.1</v>
+      </c>
+      <c r="C2983" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="D2983" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E2983" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="2984">
+      <c r="A2984" s="4" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B2984" t="n">
+        <v>11258.13</v>
+      </c>
+      <c r="C2984" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="D2984" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E2984" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="2985">
+      <c r="A2985" s="4" t="n">
+        <v>44939</v>
+      </c>
+      <c r="B2985" t="n">
+        <v>11256.24</v>
+      </c>
+      <c r="C2985" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="D2985" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E2985" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="2986">
+      <c r="A2986" s="4" t="n">
+        <v>44942</v>
+      </c>
+      <c r="B2986" t="n">
+        <v>11204.69</v>
+      </c>
+      <c r="C2986" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="D2986" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E2986" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2986"/>
+  <dimension ref="A1:E2999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50935,6 +50935,227 @@
         <v>1.47</v>
       </c>
     </row>
+    <row r="2987">
+      <c r="A2987" s="4" t="n">
+        <v>44943</v>
+      </c>
+      <c r="B2987" t="n">
+        <v>11189.65</v>
+      </c>
+      <c r="C2987" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="D2987" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E2987" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="2988">
+      <c r="A2988" s="4" t="n">
+        <v>44944</v>
+      </c>
+      <c r="B2988" t="n">
+        <v>11264.86</v>
+      </c>
+      <c r="C2988" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="D2988" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E2988" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="2989">
+      <c r="A2989" s="4" t="n">
+        <v>44945</v>
+      </c>
+      <c r="B2989" t="n">
+        <v>11266.45</v>
+      </c>
+      <c r="C2989" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2989" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E2989" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="2990">
+      <c r="A2990" s="4" t="n">
+        <v>44946</v>
+      </c>
+      <c r="B2990" t="n">
+        <v>11178.71</v>
+      </c>
+      <c r="C2990" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="D2990" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E2990" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="2991">
+      <c r="A2991" s="4" t="n">
+        <v>44949</v>
+      </c>
+      <c r="B2991" t="n">
+        <v>11309.08</v>
+      </c>
+      <c r="C2991" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="D2991" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E2991" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="2992">
+      <c r="A2992" s="4" t="n">
+        <v>44950</v>
+      </c>
+      <c r="B2992" t="n">
+        <v>11238.25</v>
+      </c>
+      <c r="C2992" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="D2992" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E2992" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="2993">
+      <c r="A2993" s="4" t="n">
+        <v>44951</v>
+      </c>
+      <c r="B2993" t="n">
+        <v>11073.73</v>
+      </c>
+      <c r="C2993" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="D2993" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E2993" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2994">
+      <c r="A2994" s="4" t="n">
+        <v>44953</v>
+      </c>
+      <c r="B2994" t="n">
+        <v>10892.16</v>
+      </c>
+      <c r="C2994" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D2994" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="E2994" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="2995">
+      <c r="A2995" s="4" t="n">
+        <v>44956</v>
+      </c>
+      <c r="B2995" t="n">
+        <v>10910.06</v>
+      </c>
+      <c r="C2995" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="D2995" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="E2995" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="2996">
+      <c r="A2996" s="4" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B2996" t="n">
+        <v>11117.36</v>
+      </c>
+      <c r="C2996" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="D2996" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E2996" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="2997">
+      <c r="A2997" s="4" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B2997" t="n">
+        <v>11010.13</v>
+      </c>
+      <c r="C2997" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="D2997" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E2997" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2998">
+      <c r="A2998" s="4" t="n">
+        <v>44959</v>
+      </c>
+      <c r="B2998" t="n">
+        <v>11045.15</v>
+      </c>
+      <c r="C2998" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D2998" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E2998" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2999">
+      <c r="A2999" s="4" t="n">
+        <v>44960</v>
+      </c>
+      <c r="B2999" t="n">
+        <v>11076.22</v>
+      </c>
+      <c r="C2999" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="D2999" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E2999" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2999"/>
+  <dimension ref="A1:E3004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51156,6 +51156,91 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="3000">
+      <c r="A3000" s="4" t="n">
+        <v>44963</v>
+      </c>
+      <c r="B3000" t="n">
+        <v>11159.07</v>
+      </c>
+      <c r="C3000" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D3000" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E3000" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="3001">
+      <c r="A3001" s="4" t="n">
+        <v>44964</v>
+      </c>
+      <c r="B3001" t="n">
+        <v>11149.08</v>
+      </c>
+      <c r="C3001" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="D3001" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E3001" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3002">
+      <c r="A3002" s="4" t="n">
+        <v>44965</v>
+      </c>
+      <c r="B3002" t="n">
+        <v>11253.31</v>
+      </c>
+      <c r="C3002" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="D3002" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E3002" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="3003">
+      <c r="A3003" s="4" t="n">
+        <v>44966</v>
+      </c>
+      <c r="B3003" t="n">
+        <v>11276.56</v>
+      </c>
+      <c r="C3003" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="D3003" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E3003" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="3004">
+      <c r="A3004" s="4" t="n">
+        <v>44967</v>
+      </c>
+      <c r="B3004" t="n">
+        <v>11293.6</v>
+      </c>
+      <c r="C3004" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="D3004" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E3004" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3004"/>
+  <dimension ref="A1:E3021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51241,6 +51241,295 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="3005">
+      <c r="A3005" s="4" t="n">
+        <v>44970</v>
+      </c>
+      <c r="B3005" t="n">
+        <v>11110.43</v>
+      </c>
+      <c r="C3005" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="D3005" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E3005" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3006">
+      <c r="A3006" s="4" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B3006" t="n">
+        <v>11107.68</v>
+      </c>
+      <c r="C3006" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="D3006" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E3006" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3007">
+      <c r="A3007" s="4" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B3007" t="n">
+        <v>11186.85</v>
+      </c>
+      <c r="C3007" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="D3007" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E3007" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="3008">
+      <c r="A3008" s="4" t="n">
+        <v>44973</v>
+      </c>
+      <c r="B3008" t="n">
+        <v>11265.18</v>
+      </c>
+      <c r="C3008" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="D3008" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E3008" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="3009">
+      <c r="A3009" s="4" t="n">
+        <v>44974</v>
+      </c>
+      <c r="B3009" t="n">
+        <v>11152.89</v>
+      </c>
+      <c r="C3009" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="D3009" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E3009" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="3010">
+      <c r="A3010" s="4" t="n">
+        <v>44977</v>
+      </c>
+      <c r="B3010" t="n">
+        <v>11138.04</v>
+      </c>
+      <c r="C3010" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="D3010" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E3010" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3011">
+      <c r="A3011" s="4" t="n">
+        <v>44978</v>
+      </c>
+      <c r="B3011" t="n">
+        <v>11092.12</v>
+      </c>
+      <c r="C3011" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="D3011" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E3011" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3012">
+      <c r="A3012" s="4" t="n">
+        <v>44979</v>
+      </c>
+      <c r="B3012" t="n">
+        <v>10975.91</v>
+      </c>
+      <c r="C3012" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D3012" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="E3012" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3013">
+      <c r="A3013" s="4" t="n">
+        <v>44980</v>
+      </c>
+      <c r="B3013" t="n">
+        <v>10960.09</v>
+      </c>
+      <c r="C3013" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="D3013" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="E3013" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3014">
+      <c r="A3014" s="4" t="n">
+        <v>44981</v>
+      </c>
+      <c r="B3014" t="n">
+        <v>10920.75</v>
+      </c>
+      <c r="C3014" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="D3014" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="E3014" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="3015">
+      <c r="A3015" s="4" t="n">
+        <v>44984</v>
+      </c>
+      <c r="B3015" t="n">
+        <v>10844.8</v>
+      </c>
+      <c r="C3015" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="D3015" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E3015" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3016">
+      <c r="A3016" s="4" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B3016" t="n">
+        <v>10894.69</v>
+      </c>
+      <c r="C3016" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="D3016" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="E3016" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3017">
+      <c r="A3017" s="4" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B3017" t="n">
+        <v>11037.68</v>
+      </c>
+      <c r="C3017" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="D3017" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E3017" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="3018">
+      <c r="A3018" s="4" t="n">
+        <v>44987</v>
+      </c>
+      <c r="B3018" t="n">
+        <v>11013.6</v>
+      </c>
+      <c r="C3018" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="D3018" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E3018" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="3019">
+      <c r="A3019" s="4" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B3019" t="n">
+        <v>11109.91</v>
+      </c>
+      <c r="C3019" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="D3019" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E3019" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="3020">
+      <c r="A3020" s="4" t="n">
+        <v>44991</v>
+      </c>
+      <c r="B3020" t="n">
+        <v>11183.22</v>
+      </c>
+      <c r="C3020" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="D3020" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E3020" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3021">
+      <c r="A3021" s="4" t="n">
+        <v>44993</v>
+      </c>
+      <c r="B3021" t="n">
+        <v>11266.2</v>
+      </c>
+      <c r="C3021" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="D3021" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E3021" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -72,7 +72,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -83,6 +83,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -449,13 +450,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3021"/>
+  <dimension ref="A1:E3392"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A3001" workbookViewId="0">
+      <selection activeCell="A3021" sqref="A3021"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <cols>
+    <col width="18" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -51530,6 +51534,6313 @@
         <v>1.45</v>
       </c>
     </row>
+    <row r="3022">
+      <c r="A3022" s="5" t="n">
+        <v>44994</v>
+      </c>
+      <c r="B3022" t="n">
+        <v>11196.44</v>
+      </c>
+      <c r="C3022" t="n">
+        <v>22.64</v>
+      </c>
+      <c r="D3022" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E3022" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3023">
+      <c r="A3023" s="5" t="n">
+        <v>44995</v>
+      </c>
+      <c r="B3023" t="n">
+        <v>11115.31</v>
+      </c>
+      <c r="C3023" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="D3023" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E3023" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="3024">
+      <c r="A3024" s="5" t="n">
+        <v>44998</v>
+      </c>
+      <c r="B3024" t="n">
+        <v>10893.21</v>
+      </c>
+      <c r="C3024" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="D3024" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="E3024" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="3025">
+      <c r="A3025" s="5" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B3025" t="n">
+        <v>10851.91</v>
+      </c>
+      <c r="C3025" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="D3025" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E3025" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="3026">
+      <c r="A3026" s="5" t="n">
+        <v>45000</v>
+      </c>
+      <c r="B3026" t="n">
+        <v>10836.32</v>
+      </c>
+      <c r="C3026" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="D3026" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E3026" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="3027">
+      <c r="A3027" s="5" t="n">
+        <v>45001</v>
+      </c>
+      <c r="B3027" t="n">
+        <v>10892.53</v>
+      </c>
+      <c r="C3027" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D3027" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="E3027" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3028">
+      <c r="A3028" s="5" t="n">
+        <v>45002</v>
+      </c>
+      <c r="B3028" t="n">
+        <v>10934.63</v>
+      </c>
+      <c r="C3028" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="D3028" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="E3028" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3029">
+      <c r="A3029" s="5" t="n">
+        <v>45005</v>
+      </c>
+      <c r="B3029" t="n">
+        <v>10811.58</v>
+      </c>
+      <c r="C3029" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="D3029" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E3029" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="3030">
+      <c r="A3030" s="5" t="n">
+        <v>45006</v>
+      </c>
+      <c r="B3030" t="n">
+        <v>10864.91</v>
+      </c>
+      <c r="C3030" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="D3030" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="E3030" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="3031">
+      <c r="A3031" s="5" t="n">
+        <v>45007</v>
+      </c>
+      <c r="B3031" t="n">
+        <v>10888.25</v>
+      </c>
+      <c r="C3031" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D3031" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="E3031" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3032">
+      <c r="A3032" s="5" t="n">
+        <v>45008</v>
+      </c>
+      <c r="B3032" t="n">
+        <v>10821.53</v>
+      </c>
+      <c r="C3032" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="D3032" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E3032" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="3033">
+      <c r="A3033" s="5" t="n">
+        <v>45009</v>
+      </c>
+      <c r="B3033" t="n">
+        <v>10673.8</v>
+      </c>
+      <c r="C3033" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="D3033" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="E3033" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="3034">
+      <c r="A3034" s="5" t="n">
+        <v>45012</v>
+      </c>
+      <c r="B3034" t="n">
+        <v>10637.87</v>
+      </c>
+      <c r="C3034" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D3034" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E3034" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3035">
+      <c r="A3035" s="5" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B3035" t="n">
+        <v>10605.97</v>
+      </c>
+      <c r="C3035" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="D3035" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E3035" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3036">
+      <c r="A3036" s="5" t="n">
+        <v>45014</v>
+      </c>
+      <c r="B3036" t="n">
+        <v>10789.43</v>
+      </c>
+      <c r="C3036" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="D3036" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="E3036" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="3037">
+      <c r="A3037" s="5" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B3037" t="n">
+        <v>10909.66</v>
+      </c>
+      <c r="C3037" t="n">
+        <v>21.63</v>
+      </c>
+      <c r="D3037" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="E3037" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="3038">
+      <c r="A3038" s="5" t="n">
+        <v>45019</v>
+      </c>
+      <c r="B3038" t="n">
+        <v>10949.58</v>
+      </c>
+      <c r="C3038" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="D3038" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="E3038" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="3039">
+      <c r="A3039" s="5" t="n">
+        <v>45021</v>
+      </c>
+      <c r="B3039" t="n">
+        <v>10946.72</v>
+      </c>
+      <c r="C3039" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="D3039" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="E3039" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="3040">
+      <c r="A3040" s="5" t="n">
+        <v>45022</v>
+      </c>
+      <c r="B3040" t="n">
+        <v>11017.72</v>
+      </c>
+      <c r="C3040" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="D3040" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="E3040" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="3041">
+      <c r="A3041" s="5" t="n">
+        <v>45026</v>
+      </c>
+      <c r="B3041" t="n">
+        <v>11058.07</v>
+      </c>
+      <c r="C3041" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="D3041" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="E3041" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="3042">
+      <c r="A3042" s="5" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B3042" t="n">
+        <v>11091.42</v>
+      </c>
+      <c r="C3042" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D3042" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E3042" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="3043">
+      <c r="A3043" s="5" t="n">
+        <v>45028</v>
+      </c>
+      <c r="B3043" t="n">
+        <v>11141.09</v>
+      </c>
+      <c r="C3043" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="D3043" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="E3043" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="3044">
+      <c r="A3044" s="5" t="n">
+        <v>45029</v>
+      </c>
+      <c r="B3044" t="n">
+        <v>11180.96</v>
+      </c>
+      <c r="C3044" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="D3044" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="E3044" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3045">
+      <c r="A3045" s="5" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B3045" t="n">
+        <v>11209.1</v>
+      </c>
+      <c r="C3045" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="D3045" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="E3045" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3046">
+      <c r="A3046" s="5" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B3046" t="n">
+        <v>11302.57</v>
+      </c>
+      <c r="C3046" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="D3046" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E3046" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="3047">
+      <c r="A3047" s="5" t="n">
+        <v>45035</v>
+      </c>
+      <c r="B3047" t="n">
+        <v>11279.02</v>
+      </c>
+      <c r="C3047" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="D3047" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E3047" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="3048">
+      <c r="A3048" s="5" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B3048" t="n">
+        <v>11296.59</v>
+      </c>
+      <c r="C3048" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D3048" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E3048" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="3049">
+      <c r="A3049" s="5" t="n">
+        <v>45037</v>
+      </c>
+      <c r="B3049" t="n">
+        <v>11250.48</v>
+      </c>
+      <c r="C3049" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="D3049" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="E3049" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="3050">
+      <c r="A3050" s="5" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B3050" t="n">
+        <v>11326.5</v>
+      </c>
+      <c r="C3050" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="D3050" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E3050" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="3051">
+      <c r="A3051" s="5" t="n">
+        <v>45041</v>
+      </c>
+      <c r="B3051" t="n">
+        <v>11358.46</v>
+      </c>
+      <c r="C3051" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="D3051" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E3051" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="3052">
+      <c r="A3052" s="5" t="n">
+        <v>45042</v>
+      </c>
+      <c r="B3052" t="n">
+        <v>11383.08</v>
+      </c>
+      <c r="C3052" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="D3052" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E3052" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="3053">
+      <c r="A3053" s="5" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B3053" t="n">
+        <v>11422.95</v>
+      </c>
+      <c r="C3053" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="D3053" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E3053" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="3054">
+      <c r="A3054" s="5" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B3054" t="n">
+        <v>11548.87</v>
+      </c>
+      <c r="C3054" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="D3054" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E3054" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="3055">
+      <c r="A3055" s="5" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B3055" t="n">
+        <v>11676.88</v>
+      </c>
+      <c r="C3055" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="D3055" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E3055" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3056">
+      <c r="A3056" s="5" t="n">
+        <v>45049</v>
+      </c>
+      <c r="B3056" t="n">
+        <v>11681.58</v>
+      </c>
+      <c r="C3056" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="D3056" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E3056" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3057">
+      <c r="A3057" s="5" t="n">
+        <v>45050</v>
+      </c>
+      <c r="B3057" t="n">
+        <v>11755.08</v>
+      </c>
+      <c r="C3057" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="D3057" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E3057" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="3058">
+      <c r="A3058" s="5" t="n">
+        <v>45051</v>
+      </c>
+      <c r="B3058" t="n">
+        <v>11644.13</v>
+      </c>
+      <c r="C3058" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="D3058" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E3058" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="3059">
+      <c r="A3059" s="5" t="n">
+        <v>45054</v>
+      </c>
+      <c r="B3059" t="n">
+        <v>11788.89</v>
+      </c>
+      <c r="C3059" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3059" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E3059" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="3060">
+      <c r="A3060" s="5" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B3060" t="n">
+        <v>11793.6</v>
+      </c>
+      <c r="C3060" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="D3060" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E3060" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="3061">
+      <c r="A3061" s="5" t="n">
+        <v>45056</v>
+      </c>
+      <c r="B3061" t="n">
+        <v>11801.26</v>
+      </c>
+      <c r="C3061" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="D3061" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E3061" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3062">
+      <c r="A3062" s="5" t="n">
+        <v>45057</v>
+      </c>
+      <c r="B3062" t="n">
+        <v>11848.45</v>
+      </c>
+      <c r="C3062" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="D3062" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E3062" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="3063">
+      <c r="A3063" s="5" t="n">
+        <v>45058</v>
+      </c>
+      <c r="B3063" t="n">
+        <v>11790.4</v>
+      </c>
+      <c r="C3063" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="D3063" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E3063" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3064">
+      <c r="A3064" s="5" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B3064" t="n">
+        <v>11905.93</v>
+      </c>
+      <c r="C3064" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="D3064" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="E3064" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3065">
+      <c r="A3065" s="5" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B3065" t="n">
+        <v>11945.21</v>
+      </c>
+      <c r="C3065" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="D3065" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E3065" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="3066">
+      <c r="A3066" s="5" t="n">
+        <v>45063</v>
+      </c>
+      <c r="B3066" t="n">
+        <v>11912.93</v>
+      </c>
+      <c r="C3066" t="n">
+        <v>22.38</v>
+      </c>
+      <c r="D3066" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E3066" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="3067">
+      <c r="A3067" s="5" t="n">
+        <v>45064</v>
+      </c>
+      <c r="B3067" t="n">
+        <v>11825.15</v>
+      </c>
+      <c r="C3067" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="D3067" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E3067" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3068">
+      <c r="A3068" s="5" t="n">
+        <v>45065</v>
+      </c>
+      <c r="B3068" t="n">
+        <v>11824.6</v>
+      </c>
+      <c r="C3068" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="D3068" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E3068" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3069">
+      <c r="A3069" s="5" t="n">
+        <v>45068</v>
+      </c>
+      <c r="B3069" t="n">
+        <v>11901.63</v>
+      </c>
+      <c r="C3069" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="D3069" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="E3069" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="3070">
+      <c r="A3070" s="5" t="n">
+        <v>45069</v>
+      </c>
+      <c r="B3070" t="n">
+        <v>11966.41</v>
+      </c>
+      <c r="C3070" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="D3070" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E3070" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="3071">
+      <c r="A3071" s="5" t="n">
+        <v>45070</v>
+      </c>
+      <c r="B3071" t="n">
+        <v>11942.49</v>
+      </c>
+      <c r="C3071" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="D3071" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E3071" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="3072">
+      <c r="A3072" s="5" t="n">
+        <v>45071</v>
+      </c>
+      <c r="B3072" t="n">
+        <v>12026.16</v>
+      </c>
+      <c r="C3072" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="D3072" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="E3072" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="3073">
+      <c r="A3073" s="5" t="n">
+        <v>45072</v>
+      </c>
+      <c r="B3073" t="n">
+        <v>12150.62</v>
+      </c>
+      <c r="C3073" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="D3073" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="E3073" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3074">
+      <c r="A3074" s="5" t="n">
+        <v>45075</v>
+      </c>
+      <c r="B3074" t="n">
+        <v>12204.41</v>
+      </c>
+      <c r="C3074" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="D3074" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E3074" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3075">
+      <c r="A3075" s="5" t="n">
+        <v>45076</v>
+      </c>
+      <c r="B3075" t="n">
+        <v>12250.87</v>
+      </c>
+      <c r="C3075" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="D3075" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="E3075" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3076">
+      <c r="A3076" s="5" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B3076" t="n">
+        <v>12294.06</v>
+      </c>
+      <c r="C3076" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="D3076" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E3076" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="3077">
+      <c r="A3077" s="5" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B3077" t="n">
+        <v>12319.31</v>
+      </c>
+      <c r="C3077" t="n">
+        <v>22.76</v>
+      </c>
+      <c r="D3077" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E3077" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="3078">
+      <c r="A3078" s="5" t="n">
+        <v>45079</v>
+      </c>
+      <c r="B3078" t="n">
+        <v>12409.69</v>
+      </c>
+      <c r="C3078" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="D3078" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E3078" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3079">
+      <c r="A3079" s="5" t="n">
+        <v>45082</v>
+      </c>
+      <c r="B3079" t="n">
+        <v>12420.66</v>
+      </c>
+      <c r="C3079" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="D3079" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E3079" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3080">
+      <c r="A3080" s="5" t="n">
+        <v>45083</v>
+      </c>
+      <c r="B3080" t="n">
+        <v>12407.81</v>
+      </c>
+      <c r="C3080" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="D3080" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E3080" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="3081">
+      <c r="A3081" s="5" t="n">
+        <v>45084</v>
+      </c>
+      <c r="B3081" t="n">
+        <v>12506.5</v>
+      </c>
+      <c r="C3081" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="D3081" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="E3081" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3082">
+      <c r="A3082" s="5" t="n">
+        <v>45085</v>
+      </c>
+      <c r="B3082" t="n">
+        <v>12383.88</v>
+      </c>
+      <c r="C3082" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="D3082" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="E3082" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="3083">
+      <c r="A3083" s="5" t="n">
+        <v>45086</v>
+      </c>
+      <c r="B3083" t="n">
+        <v>12372.59</v>
+      </c>
+      <c r="C3083" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="D3083" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="E3083" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="3084">
+      <c r="A3084" s="5" t="n">
+        <v>45089</v>
+      </c>
+      <c r="B3084" t="n">
+        <v>12471.59</v>
+      </c>
+      <c r="C3084" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="D3084" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="E3084" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="3085">
+      <c r="A3085" s="5" t="n">
+        <v>45090</v>
+      </c>
+      <c r="B3085" t="n">
+        <v>12626.05</v>
+      </c>
+      <c r="C3085" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="D3085" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E3085" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="3086">
+      <c r="A3086" s="5" t="n">
+        <v>45091</v>
+      </c>
+      <c r="B3086" t="n">
+        <v>12657.2</v>
+      </c>
+      <c r="C3086" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="D3086" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E3086" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3087">
+      <c r="A3087" s="5" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B3087" t="n">
+        <v>12636.19</v>
+      </c>
+      <c r="C3087" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="D3087" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E3087" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="3088">
+      <c r="A3088" s="5" t="n">
+        <v>45093</v>
+      </c>
+      <c r="B3088" t="n">
+        <v>12747.99</v>
+      </c>
+      <c r="C3088" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="D3088" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="E3088" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3089">
+      <c r="A3089" s="5" t="n">
+        <v>45096</v>
+      </c>
+      <c r="B3089" t="n">
+        <v>12757.5</v>
+      </c>
+      <c r="C3089" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="D3089" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="E3089" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3090">
+      <c r="A3090" s="5" t="n">
+        <v>45097</v>
+      </c>
+      <c r="B3090" t="n">
+        <v>12842.63</v>
+      </c>
+      <c r="C3090" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="D3090" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="E3090" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3091">
+      <c r="A3091" s="5" t="n">
+        <v>45098</v>
+      </c>
+      <c r="B3091" t="n">
+        <v>12941.05</v>
+      </c>
+      <c r="C3091" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="D3091" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E3091" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3092">
+      <c r="A3092" s="5" t="n">
+        <v>45099</v>
+      </c>
+      <c r="B3092" t="n">
+        <v>12785.03</v>
+      </c>
+      <c r="C3092" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="D3092" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E3092" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="3093">
+      <c r="A3093" s="5" t="n">
+        <v>45100</v>
+      </c>
+      <c r="B3093" t="n">
+        <v>12653.3</v>
+      </c>
+      <c r="C3093" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="D3093" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E3093" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="3094">
+      <c r="A3094" s="5" t="n">
+        <v>45103</v>
+      </c>
+      <c r="B3094" t="n">
+        <v>12755.45</v>
+      </c>
+      <c r="C3094" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="D3094" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="E3094" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3095">
+      <c r="A3095" s="5" t="n">
+        <v>45104</v>
+      </c>
+      <c r="B3095" t="n">
+        <v>12834.53</v>
+      </c>
+      <c r="C3095" t="n">
+        <v>23.67</v>
+      </c>
+      <c r="D3095" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E3095" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="3096">
+      <c r="A3096" s="5" t="n">
+        <v>45105</v>
+      </c>
+      <c r="B3096" t="n">
+        <v>12957.05</v>
+      </c>
+      <c r="C3096" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="D3096" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E3096" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="3097">
+      <c r="A3097" s="5" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B3097" t="n">
+        <v>13069.47</v>
+      </c>
+      <c r="C3097" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="D3097" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E3097" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3098">
+      <c r="A3098" s="5" t="n">
+        <v>45110</v>
+      </c>
+      <c r="B3098" t="n">
+        <v>13090.26</v>
+      </c>
+      <c r="C3098" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D3098" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E3098" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3099">
+      <c r="A3099" s="5" t="n">
+        <v>45111</v>
+      </c>
+      <c r="B3099" t="n">
+        <v>13060.14</v>
+      </c>
+      <c r="C3099" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="D3099" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E3099" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="3100">
+      <c r="A3100" s="5" t="n">
+        <v>45112</v>
+      </c>
+      <c r="B3100" t="n">
+        <v>13156.3</v>
+      </c>
+      <c r="C3100" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="D3100" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="E3100" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="3101">
+      <c r="A3101" s="5" t="n">
+        <v>45113</v>
+      </c>
+      <c r="B3101" t="n">
+        <v>13250.87</v>
+      </c>
+      <c r="C3101" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="D3101" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E3101" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3102">
+      <c r="A3102" s="5" t="n">
+        <v>45114</v>
+      </c>
+      <c r="B3102" t="n">
+        <v>13134.21</v>
+      </c>
+      <c r="C3102" t="n">
+        <v>24.12</v>
+      </c>
+      <c r="D3102" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E3102" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="3103">
+      <c r="A3103" s="5" t="n">
+        <v>45117</v>
+      </c>
+      <c r="B3103" t="n">
+        <v>13097.96</v>
+      </c>
+      <c r="C3103" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="D3103" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E3103" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="3104">
+      <c r="A3104" s="5" t="n">
+        <v>45118</v>
+      </c>
+      <c r="B3104" t="n">
+        <v>13238.65</v>
+      </c>
+      <c r="C3104" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="D3104" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E3104" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="3105">
+      <c r="A3105" s="5" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B3105" t="n">
+        <v>13286.71</v>
+      </c>
+      <c r="C3105" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="D3105" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E3105" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3106">
+      <c r="A3106" s="5" t="n">
+        <v>45120</v>
+      </c>
+      <c r="B3106" t="n">
+        <v>13167.8</v>
+      </c>
+      <c r="C3106" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="D3106" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E3106" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="3107">
+      <c r="A3107" s="5" t="n">
+        <v>45121</v>
+      </c>
+      <c r="B3107" t="n">
+        <v>13372.64</v>
+      </c>
+      <c r="C3107" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D3107" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E3107" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3108">
+      <c r="A3108" s="5" t="n">
+        <v>45124</v>
+      </c>
+      <c r="B3108" t="n">
+        <v>13402.12</v>
+      </c>
+      <c r="C3108" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="D3108" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E3108" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3109">
+      <c r="A3109" s="5" t="n">
+        <v>45125</v>
+      </c>
+      <c r="B3109" t="n">
+        <v>13395.46</v>
+      </c>
+      <c r="C3109" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="D3109" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E3109" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3110">
+      <c r="A3110" s="5" t="n">
+        <v>45126</v>
+      </c>
+      <c r="B3110" t="n">
+        <v>13506.95</v>
+      </c>
+      <c r="C3110" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="D3110" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E3110" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3111">
+      <c r="A3111" s="5" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B3111" t="n">
+        <v>13535.01</v>
+      </c>
+      <c r="C3111" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="D3111" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E3111" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="3112">
+      <c r="A3112" s="5" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B3112" t="n">
+        <v>13499.06</v>
+      </c>
+      <c r="C3112" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="D3112" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E3112" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="3113">
+      <c r="A3113" s="5" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B3113" t="n">
+        <v>13517.97</v>
+      </c>
+      <c r="C3113" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="D3113" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E3113" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="3114">
+      <c r="A3114" s="5" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B3114" t="n">
+        <v>13572.54</v>
+      </c>
+      <c r="C3114" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="D3114" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="E3114" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3115">
+      <c r="A3115" s="5" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B3115" t="n">
+        <v>13650.85</v>
+      </c>
+      <c r="C3115" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D3115" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E3115" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="3116">
+      <c r="A3116" s="5" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B3116" t="n">
+        <v>13731.47</v>
+      </c>
+      <c r="C3116" t="n">
+        <v>24.45</v>
+      </c>
+      <c r="D3116" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="E3116" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3117">
+      <c r="A3117" s="5" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B3117" t="n">
+        <v>13813.42</v>
+      </c>
+      <c r="C3117" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D3117" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E3117" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3118">
+      <c r="A3118" s="5" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B3118" t="n">
+        <v>13989.48</v>
+      </c>
+      <c r="C3118" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="D3118" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E3118" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="3119">
+      <c r="A3119" s="5" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B3119" t="n">
+        <v>13952.57</v>
+      </c>
+      <c r="C3119" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="D3119" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E3119" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="3120">
+      <c r="A3120" s="5" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B3120" t="n">
+        <v>13757.75</v>
+      </c>
+      <c r="C3120" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="D3120" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E3120" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="3121">
+      <c r="A3121" s="5" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B3121" t="n">
+        <v>13779.6</v>
+      </c>
+      <c r="C3121" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="D3121" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E3121" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="3122">
+      <c r="A3122" s="5" t="n">
+        <v>45142</v>
+      </c>
+      <c r="B3122" t="n">
+        <v>13889.05</v>
+      </c>
+      <c r="C3122" t="n">
+        <v>20.67</v>
+      </c>
+      <c r="D3122" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E3122" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="3123">
+      <c r="A3123" s="5" t="n">
+        <v>45145</v>
+      </c>
+      <c r="B3123" t="n">
+        <v>13948.42</v>
+      </c>
+      <c r="C3123" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="D3123" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E3123" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="3124">
+      <c r="A3124" s="5" t="n">
+        <v>45146</v>
+      </c>
+      <c r="B3124" t="n">
+        <v>13968.56</v>
+      </c>
+      <c r="C3124" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="D3124" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E3124" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="3125">
+      <c r="A3125" s="5" t="n">
+        <v>45147</v>
+      </c>
+      <c r="B3125" t="n">
+        <v>14036.45</v>
+      </c>
+      <c r="C3125" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="D3125" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E3125" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3126">
+      <c r="A3126" s="5" t="n">
+        <v>45148</v>
+      </c>
+      <c r="B3126" t="n">
+        <v>14052.94</v>
+      </c>
+      <c r="C3126" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="D3126" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E3126" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="3127">
+      <c r="A3127" s="5" t="n">
+        <v>45149</v>
+      </c>
+      <c r="B3127" t="n">
+        <v>13998.35</v>
+      </c>
+      <c r="C3127" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="D3127" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E3127" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="3128">
+      <c r="A3128" s="5" t="n">
+        <v>45152</v>
+      </c>
+      <c r="B3128" t="n">
+        <v>14010.74</v>
+      </c>
+      <c r="C3128" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D3128" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E3128" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3129">
+      <c r="A3129" s="5" t="n">
+        <v>45154</v>
+      </c>
+      <c r="B3129" t="n">
+        <v>14023.84</v>
+      </c>
+      <c r="C3129" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="D3129" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E3129" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3130">
+      <c r="A3130" s="5" t="n">
+        <v>45155</v>
+      </c>
+      <c r="B3130" t="n">
+        <v>14069.37</v>
+      </c>
+      <c r="C3130" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="D3130" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E3130" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="3131">
+      <c r="A3131" s="5" t="n">
+        <v>45156</v>
+      </c>
+      <c r="B3131" t="n">
+        <v>14010.57</v>
+      </c>
+      <c r="C3131" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="D3131" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E3131" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3132">
+      <c r="A3132" s="5" t="n">
+        <v>45159</v>
+      </c>
+      <c r="B3132" t="n">
+        <v>14113.71</v>
+      </c>
+      <c r="C3132" t="n">
+        <v>20.64</v>
+      </c>
+      <c r="D3132" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E3132" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="3133">
+      <c r="A3133" s="5" t="n">
+        <v>45160</v>
+      </c>
+      <c r="B3133" t="n">
+        <v>14249.92</v>
+      </c>
+      <c r="C3133" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D3133" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E3133" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="3134">
+      <c r="A3134" s="5" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B3134" t="n">
+        <v>14343.74</v>
+      </c>
+      <c r="C3134" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="D3134" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E3134" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="3135">
+      <c r="A3135" s="5" t="n">
+        <v>45162</v>
+      </c>
+      <c r="B3135" t="n">
+        <v>14407.63</v>
+      </c>
+      <c r="C3135" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="D3135" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E3135" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3136">
+      <c r="A3136" s="5" t="n">
+        <v>45163</v>
+      </c>
+      <c r="B3136" t="n">
+        <v>14265.93</v>
+      </c>
+      <c r="C3136" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="D3136" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E3136" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="3137">
+      <c r="A3137" s="5" t="n">
+        <v>45166</v>
+      </c>
+      <c r="B3137" t="n">
+        <v>14332.55</v>
+      </c>
+      <c r="C3137" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="D3137" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E3137" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="3138">
+      <c r="A3138" s="5" t="n">
+        <v>45167</v>
+      </c>
+      <c r="B3138" t="n">
+        <v>14379.52</v>
+      </c>
+      <c r="C3138" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="D3138" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E3138" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="3139">
+      <c r="A3139" s="5" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B3139" t="n">
+        <v>14503.75</v>
+      </c>
+      <c r="C3139" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="D3139" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E3139" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3140">
+      <c r="A3140" s="5" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B3140" t="n">
+        <v>14474.4</v>
+      </c>
+      <c r="C3140" t="n">
+        <v>20.76</v>
+      </c>
+      <c r="D3140" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E3140" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3141">
+      <c r="A3141" s="5" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B3141" t="n">
+        <v>14575.3</v>
+      </c>
+      <c r="C3141" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="D3141" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E3141" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3142">
+      <c r="A3142" s="5" t="n">
+        <v>45173</v>
+      </c>
+      <c r="B3142" t="n">
+        <v>14661.28</v>
+      </c>
+      <c r="C3142" t="n">
+        <v>21.03</v>
+      </c>
+      <c r="D3142" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E3142" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="3143">
+      <c r="A3143" s="5" t="n">
+        <v>45174</v>
+      </c>
+      <c r="B3143" t="n">
+        <v>14804.47</v>
+      </c>
+      <c r="C3143" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="D3143" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E3143" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="3144">
+      <c r="A3144" s="5" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B3144" t="n">
+        <v>14845.85</v>
+      </c>
+      <c r="C3144" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D3144" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E3144" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="3145">
+      <c r="A3145" s="5" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B3145" t="n">
+        <v>14912.1</v>
+      </c>
+      <c r="C3145" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="D3145" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E3145" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="3146">
+      <c r="A3146" s="5" t="n">
+        <v>45177</v>
+      </c>
+      <c r="B3146" t="n">
+        <v>15075.65</v>
+      </c>
+      <c r="C3146" t="n">
+        <v>21.63</v>
+      </c>
+      <c r="D3146" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E3146" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="3147">
+      <c r="A3147" s="5" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B3147" t="n">
+        <v>15178.8</v>
+      </c>
+      <c r="C3147" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="D3147" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E3147" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="3148">
+      <c r="A3148" s="5" t="n">
+        <v>45181</v>
+      </c>
+      <c r="B3148" t="n">
+        <v>14739.83</v>
+      </c>
+      <c r="C3148" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="D3148" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E3148" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3149">
+      <c r="A3149" s="5" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B3149" t="n">
+        <v>14828.4</v>
+      </c>
+      <c r="C3149" t="n">
+        <v>21.27</v>
+      </c>
+      <c r="D3149" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E3149" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="3150">
+      <c r="A3150" s="5" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B3150" t="n">
+        <v>14993.88</v>
+      </c>
+      <c r="C3150" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D3150" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E3150" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="3151">
+      <c r="A3151" s="5" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B3151" t="n">
+        <v>15062.66</v>
+      </c>
+      <c r="C3151" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="D3151" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E3151" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="3152">
+      <c r="A3152" s="5" t="n">
+        <v>45187</v>
+      </c>
+      <c r="B3152" t="n">
+        <v>15011.13</v>
+      </c>
+      <c r="C3152" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="D3152" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E3152" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="3153">
+      <c r="A3153" s="5" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B3153" t="n">
+        <v>15011.09</v>
+      </c>
+      <c r="C3153" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="D3153" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E3153" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3154">
+      <c r="A3154" s="5" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B3154" t="n">
+        <v>14891.69</v>
+      </c>
+      <c r="C3154" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="D3154" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E3154" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="3155">
+      <c r="A3155" s="5" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B3155" t="n">
+        <v>14881.88</v>
+      </c>
+      <c r="C3155" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="D3155" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E3155" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="3156">
+      <c r="A3156" s="5" t="n">
+        <v>45194</v>
+      </c>
+      <c r="B3156" t="n">
+        <v>15018.76</v>
+      </c>
+      <c r="C3156" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="D3156" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E3156" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3157">
+      <c r="A3157" s="5" t="n">
+        <v>45195</v>
+      </c>
+      <c r="B3157" t="n">
+        <v>14959.27</v>
+      </c>
+      <c r="C3157" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="D3157" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="E3157" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3158">
+      <c r="A3158" s="5" t="n">
+        <v>45196</v>
+      </c>
+      <c r="B3158" t="n">
+        <v>15089.13</v>
+      </c>
+      <c r="C3158" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="D3158" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E3158" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3159">
+      <c r="A3159" s="5" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B3159" t="n">
+        <v>14828.49</v>
+      </c>
+      <c r="C3159" t="n">
+        <v>21.27</v>
+      </c>
+      <c r="D3159" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E3159" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="3160">
+      <c r="A3160" s="5" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B3160" t="n">
+        <v>15033.01</v>
+      </c>
+      <c r="C3160" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="D3160" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E3160" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="3161">
+      <c r="A3161" s="5" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B3161" t="n">
+        <v>15027.79</v>
+      </c>
+      <c r="C3161" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="D3161" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E3161" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="3162">
+      <c r="A3162" s="5" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B3162" t="n">
+        <v>14822.35</v>
+      </c>
+      <c r="C3162" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="D3162" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E3162" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="3163">
+      <c r="A3163" s="5" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B3163" t="n">
+        <v>14828.79</v>
+      </c>
+      <c r="C3163" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D3163" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E3163" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="3164">
+      <c r="A3164" s="5" t="n">
+        <v>45205</v>
+      </c>
+      <c r="B3164" t="n">
+        <v>14945.09</v>
+      </c>
+      <c r="C3164" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="D3164" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E3164" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3165">
+      <c r="A3165" s="5" t="n">
+        <v>45208</v>
+      </c>
+      <c r="B3165" t="n">
+        <v>14779.28</v>
+      </c>
+      <c r="C3165" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="D3165" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E3165" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="3166">
+      <c r="A3166" s="5" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B3166" t="n">
+        <v>14977.1</v>
+      </c>
+      <c r="C3166" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="D3166" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E3166" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3167">
+      <c r="A3167" s="5" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B3167" t="n">
+        <v>15027.72</v>
+      </c>
+      <c r="C3167" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="D3167" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E3167" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="3168">
+      <c r="A3168" s="5" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B3168" t="n">
+        <v>15077.89</v>
+      </c>
+      <c r="C3168" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="D3168" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E3168" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="3169">
+      <c r="A3169" s="5" t="n">
+        <v>45212</v>
+      </c>
+      <c r="B3169" t="n">
+        <v>15052.49</v>
+      </c>
+      <c r="C3169" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D3169" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E3169" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="3170">
+      <c r="A3170" s="5" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B3170" t="n">
+        <v>15081.27</v>
+      </c>
+      <c r="C3170" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="D3170" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E3170" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="3171">
+      <c r="A3171" s="5" t="n">
+        <v>45216</v>
+      </c>
+      <c r="B3171" t="n">
+        <v>15112.02</v>
+      </c>
+      <c r="C3171" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="D3171" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E3171" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="3172">
+      <c r="A3172" s="5" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B3172" t="n">
+        <v>14943.86</v>
+      </c>
+      <c r="C3172" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="D3172" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E3172" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3173">
+      <c r="A3173" s="5" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B3173" t="n">
+        <v>14937.46</v>
+      </c>
+      <c r="C3173" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="D3173" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E3173" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3174">
+      <c r="A3174" s="5" t="n">
+        <v>45219</v>
+      </c>
+      <c r="B3174" t="n">
+        <v>14690.17</v>
+      </c>
+      <c r="C3174" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="D3174" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E3174" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="3175">
+      <c r="A3175" s="5" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B3175" t="n">
+        <v>14423.29</v>
+      </c>
+      <c r="C3175" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="D3175" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E3175" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="3176">
+      <c r="A3176" s="5" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B3176" t="n">
+        <v>14327.78</v>
+      </c>
+      <c r="C3176" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="D3176" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E3176" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="3177">
+      <c r="A3177" s="5" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B3177" t="n">
+        <v>14103.05</v>
+      </c>
+      <c r="C3177" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="D3177" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="E3177" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="3178">
+      <c r="A3178" s="5" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B3178" t="n">
+        <v>14285.42</v>
+      </c>
+      <c r="C3178" t="n">
+        <v>20.63</v>
+      </c>
+      <c r="D3178" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E3178" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="3179">
+      <c r="A3179" s="5" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B3179" t="n">
+        <v>14271.16</v>
+      </c>
+      <c r="C3179" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="D3179" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E3179" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="3180">
+      <c r="A3180" s="5" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B3180" t="n">
+        <v>14332.17</v>
+      </c>
+      <c r="C3180" t="n">
+        <v>20.64</v>
+      </c>
+      <c r="D3180" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E3180" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="3181">
+      <c r="A3181" s="5" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B3181" t="n">
+        <v>14306.52</v>
+      </c>
+      <c r="C3181" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="D3181" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="E3181" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="3182">
+      <c r="A3182" s="5" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B3182" t="n">
+        <v>14536.84</v>
+      </c>
+      <c r="C3182" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="D3182" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E3182" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="3183">
+      <c r="A3183" s="5" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B3183" t="n">
+        <v>14647.9</v>
+      </c>
+      <c r="C3183" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="D3183" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E3183" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="3184">
+      <c r="A3184" s="5" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B3184" t="n">
+        <v>14737.9</v>
+      </c>
+      <c r="C3184" t="n">
+        <v>20.72</v>
+      </c>
+      <c r="D3184" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="E3184" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3185">
+      <c r="A3185" s="5" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B3185" t="n">
+        <v>14766.71</v>
+      </c>
+      <c r="C3185" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="D3185" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E3185" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="3186">
+      <c r="A3186" s="5" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B3186" t="n">
+        <v>14893.86</v>
+      </c>
+      <c r="C3186" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D3186" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E3186" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="3187">
+      <c r="A3187" s="5" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B3187" t="n">
+        <v>14963.18</v>
+      </c>
+      <c r="C3187" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="D3187" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="E3187" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="3188">
+      <c r="A3188" s="5" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B3188" t="n">
+        <v>15039.84</v>
+      </c>
+      <c r="C3188" t="n">
+        <v>19.43</v>
+      </c>
+      <c r="D3188" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E3188" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3189">
+      <c r="A3189" s="5" t="n">
+        <v>45242</v>
+      </c>
+      <c r="B3189" t="n">
+        <v>15140.08</v>
+      </c>
+      <c r="C3189" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="D3189" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="E3189" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="3190">
+      <c r="A3190" s="5" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B3190" t="n">
+        <v>15123.47</v>
+      </c>
+      <c r="C3190" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="D3190" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E3190" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3191">
+      <c r="A3191" s="5" t="n">
+        <v>45245</v>
+      </c>
+      <c r="B3191" t="n">
+        <v>15257.07</v>
+      </c>
+      <c r="C3191" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="D3191" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E3191" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="3192">
+      <c r="A3192" s="5" t="n">
+        <v>45246</v>
+      </c>
+      <c r="B3192" t="n">
+        <v>15388.35</v>
+      </c>
+      <c r="C3192" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="D3192" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="E3192" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3193">
+      <c r="A3193" s="5" t="n">
+        <v>45247</v>
+      </c>
+      <c r="B3193" t="n">
+        <v>15428.04</v>
+      </c>
+      <c r="C3193" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="D3193" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="E3193" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3194">
+      <c r="A3194" s="5" t="n">
+        <v>45250</v>
+      </c>
+      <c r="B3194" t="n">
+        <v>15447.92</v>
+      </c>
+      <c r="C3194" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="D3194" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="E3194" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="3195">
+      <c r="A3195" s="5" t="n">
+        <v>45251</v>
+      </c>
+      <c r="B3195" t="n">
+        <v>15492.92</v>
+      </c>
+      <c r="C3195" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="D3195" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E3195" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="3196">
+      <c r="A3196" s="5" t="n">
+        <v>45252</v>
+      </c>
+      <c r="B3196" t="n">
+        <v>15476.51</v>
+      </c>
+      <c r="C3196" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="D3196" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E3196" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="3197">
+      <c r="A3197" s="5" t="n">
+        <v>45253</v>
+      </c>
+      <c r="B3197" t="n">
+        <v>15500.45</v>
+      </c>
+      <c r="C3197" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="D3197" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E3197" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="3198">
+      <c r="A3198" s="5" t="n">
+        <v>45254</v>
+      </c>
+      <c r="B3198" t="n">
+        <v>15503.5</v>
+      </c>
+      <c r="C3198" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="D3198" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E3198" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3199">
+      <c r="A3199" s="5" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B3199" t="n">
+        <v>15602.5</v>
+      </c>
+      <c r="C3199" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="D3199" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E3199" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="3200">
+      <c r="A3200" s="5" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B3200" t="n">
+        <v>15709.07</v>
+      </c>
+      <c r="C3200" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="D3200" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E3200" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="3201">
+      <c r="A3201" s="5" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B3201" t="n">
+        <v>15821.64</v>
+      </c>
+      <c r="C3201" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="D3201" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E3201" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="3202">
+      <c r="A3202" s="5" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B3202" t="n">
+        <v>15995.28</v>
+      </c>
+      <c r="C3202" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="D3202" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E3202" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="3203">
+      <c r="A3203" s="5" t="n">
+        <v>45264</v>
+      </c>
+      <c r="B3203" t="n">
+        <v>16163.83</v>
+      </c>
+      <c r="C3203" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="D3203" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="E3203" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="3204">
+      <c r="A3204" s="5" t="n">
+        <v>45265</v>
+      </c>
+      <c r="B3204" t="n">
+        <v>16220.37</v>
+      </c>
+      <c r="C3204" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="D3204" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="E3204" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="3205">
+      <c r="A3205" s="5" t="n">
+        <v>45266</v>
+      </c>
+      <c r="B3205" t="n">
+        <v>16273.99</v>
+      </c>
+      <c r="C3205" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="D3205" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E3205" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="3206">
+      <c r="A3206" s="5" t="n">
+        <v>45267</v>
+      </c>
+      <c r="B3206" t="n">
+        <v>16380.03</v>
+      </c>
+      <c r="C3206" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="D3206" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="E3206" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3207">
+      <c r="A3207" s="5" t="n">
+        <v>45268</v>
+      </c>
+      <c r="B3207" t="n">
+        <v>16370.94</v>
+      </c>
+      <c r="C3207" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="D3207" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="E3207" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3208">
+      <c r="A3208" s="5" t="n">
+        <v>45271</v>
+      </c>
+      <c r="B3208" t="n">
+        <v>16449.45</v>
+      </c>
+      <c r="C3208" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="D3208" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="E3208" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3209">
+      <c r="A3209" s="5" t="n">
+        <v>45272</v>
+      </c>
+      <c r="B3209" t="n">
+        <v>16404.85</v>
+      </c>
+      <c r="C3209" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="D3209" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="E3209" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3210">
+      <c r="A3210" s="5" t="n">
+        <v>45273</v>
+      </c>
+      <c r="B3210" t="n">
+        <v>16619.09</v>
+      </c>
+      <c r="C3210" t="n">
+        <v>20.73</v>
+      </c>
+      <c r="D3210" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="E3210" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="3211">
+      <c r="A3211" s="5" t="n">
+        <v>45274</v>
+      </c>
+      <c r="B3211" t="n">
+        <v>16859.21</v>
+      </c>
+      <c r="C3211" t="n">
+        <v>21.03</v>
+      </c>
+      <c r="D3211" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="E3211" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="3212">
+      <c r="A3212" s="5" t="n">
+        <v>45275</v>
+      </c>
+      <c r="B3212" t="n">
+        <v>16896.36</v>
+      </c>
+      <c r="C3212" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="D3212" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="E3212" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="3213">
+      <c r="A3213" s="5" t="n">
+        <v>45278</v>
+      </c>
+      <c r="B3213" t="n">
+        <v>16908.98</v>
+      </c>
+      <c r="C3213" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="D3213" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="E3213" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="3214">
+      <c r="A3214" s="5" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B3214" t="n">
+        <v>16829.33</v>
+      </c>
+      <c r="C3214" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="D3214" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="E3214" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="3215">
+      <c r="A3215" s="5" t="n">
+        <v>45280</v>
+      </c>
+      <c r="B3215" t="n">
+        <v>16287.72</v>
+      </c>
+      <c r="C3215" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="D3215" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E3215" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="3216">
+      <c r="A3216" s="5" t="n">
+        <v>45281</v>
+      </c>
+      <c r="B3216" t="n">
+        <v>16553.38</v>
+      </c>
+      <c r="C3216" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="D3216" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="E3216" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="3217">
+      <c r="A3217" s="5" t="n">
+        <v>45282</v>
+      </c>
+      <c r="B3217" t="n">
+        <v>16648.49</v>
+      </c>
+      <c r="C3217" t="n">
+        <v>20.76</v>
+      </c>
+      <c r="D3217" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="E3217" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="3218">
+      <c r="A3218" s="5" t="n">
+        <v>45286</v>
+      </c>
+      <c r="B3218" t="n">
+        <v>16735.86</v>
+      </c>
+      <c r="C3218" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="D3218" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E3218" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3219">
+      <c r="A3219" s="5" t="n">
+        <v>45287</v>
+      </c>
+      <c r="B3219" t="n">
+        <v>16788.93</v>
+      </c>
+      <c r="C3219" t="n">
+        <v>20.94</v>
+      </c>
+      <c r="D3219" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="E3219" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3220">
+      <c r="A3220" s="5" t="n">
+        <v>45288</v>
+      </c>
+      <c r="B3220" t="n">
+        <v>16944.19</v>
+      </c>
+      <c r="C3220" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="D3220" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="E3220" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="3221">
+      <c r="A3221" s="5" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B3221" t="n">
+        <v>17046.28</v>
+      </c>
+      <c r="C3221" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="D3221" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="E3221" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3222">
+      <c r="A3222" s="5" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B3222" t="n">
+        <v>17150.6</v>
+      </c>
+      <c r="C3222" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="D3222" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E3222" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3223">
+      <c r="A3223" s="5" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B3223" t="n">
+        <v>17115.51</v>
+      </c>
+      <c r="C3223" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D3223" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E3223" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3224">
+      <c r="A3224" s="5" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B3224" t="n">
+        <v>17151.48</v>
+      </c>
+      <c r="C3224" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="D3224" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E3224" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3225">
+      <c r="A3225" s="5" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B3225" t="n">
+        <v>17448.63</v>
+      </c>
+      <c r="C3225" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="D3225" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E3225" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3226">
+      <c r="A3226" s="5" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B3226" t="n">
+        <v>17456.82</v>
+      </c>
+      <c r="C3226" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="D3226" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E3226" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3227">
+      <c r="A3227" s="5" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B3227" t="n">
+        <v>17235.74</v>
+      </c>
+      <c r="C3227" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="D3227" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="E3227" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="3228">
+      <c r="A3228" s="5" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B3228" t="n">
+        <v>17186.43</v>
+      </c>
+      <c r="C3228" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="D3228" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E3228" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3229">
+      <c r="A3229" s="5" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B3229" t="n">
+        <v>17164.16</v>
+      </c>
+      <c r="C3229" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="D3229" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E3229" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3230">
+      <c r="A3230" s="5" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B3230" t="n">
+        <v>17210.6</v>
+      </c>
+      <c r="C3230" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="D3230" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E3230" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="3231">
+      <c r="A3231" s="5" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B3231" t="n">
+        <v>17317.12</v>
+      </c>
+      <c r="C3231" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="D3231" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="E3231" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="3232">
+      <c r="A3232" s="5" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B3232" t="n">
+        <v>17477.56</v>
+      </c>
+      <c r="C3232" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="D3232" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E3232" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3233">
+      <c r="A3233" s="5" t="n">
+        <v>45307</v>
+      </c>
+      <c r="B3233" t="n">
+        <v>17391.11</v>
+      </c>
+      <c r="C3233" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="D3233" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="E3233" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3234">
+      <c r="A3234" s="5" t="n">
+        <v>45308</v>
+      </c>
+      <c r="B3234" t="n">
+        <v>17165.59</v>
+      </c>
+      <c r="C3234" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="D3234" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E3234" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3235">
+      <c r="A3235" s="5" t="n">
+        <v>45309</v>
+      </c>
+      <c r="B3235" t="n">
+        <v>17237.62</v>
+      </c>
+      <c r="C3235" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="D3235" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="E3235" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="3236">
+      <c r="A3236" s="5" t="n">
+        <v>45310</v>
+      </c>
+      <c r="B3236" t="n">
+        <v>17477.14</v>
+      </c>
+      <c r="C3236" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="D3236" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E3236" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3237">
+      <c r="A3237" s="5" t="n">
+        <v>45311</v>
+      </c>
+      <c r="B3237" t="n">
+        <v>17472.06</v>
+      </c>
+      <c r="C3237" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="D3237" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E3237" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3238">
+      <c r="A3238" s="5" t="n">
+        <v>45314</v>
+      </c>
+      <c r="B3238" t="n">
+        <v>16921.91</v>
+      </c>
+      <c r="C3238" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="D3238" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="E3238" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="3239">
+      <c r="A3239" s="5" t="n">
+        <v>45315</v>
+      </c>
+      <c r="B3239" t="n">
+        <v>17320.2</v>
+      </c>
+      <c r="C3239" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="D3239" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="E3239" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="3240">
+      <c r="A3240" s="5" t="n">
+        <v>45316</v>
+      </c>
+      <c r="B3240" t="n">
+        <v>17169.52</v>
+      </c>
+      <c r="C3240" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="D3240" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E3240" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3241">
+      <c r="A3241" s="5" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B3241" t="n">
+        <v>17563.47</v>
+      </c>
+      <c r="C3241" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="D3241" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E3241" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3242">
+      <c r="A3242" s="5" t="n">
+        <v>45321</v>
+      </c>
+      <c r="B3242" t="n">
+        <v>17478.44</v>
+      </c>
+      <c r="C3242" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D3242" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="E3242" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3243">
+      <c r="A3243" s="5" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B3243" t="n">
+        <v>17665.56</v>
+      </c>
+      <c r="C3243" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="D3243" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E3243" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3244">
+      <c r="A3244" s="5" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B3244" t="n">
+        <v>17547.2</v>
+      </c>
+      <c r="C3244" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D3244" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E3244" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3245">
+      <c r="A3245" s="5" t="n">
+        <v>45324</v>
+      </c>
+      <c r="B3245" t="n">
+        <v>17714.46</v>
+      </c>
+      <c r="C3245" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D3245" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E3245" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3246">
+      <c r="A3246" s="5" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B3246" t="n">
+        <v>17771.1</v>
+      </c>
+      <c r="C3246" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="D3246" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E3246" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3247">
+      <c r="A3247" s="5" t="n">
+        <v>45328</v>
+      </c>
+      <c r="B3247" t="n">
+        <v>17982.34</v>
+      </c>
+      <c r="C3247" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="D3247" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E3247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3248">
+      <c r="A3248" s="5" t="n">
+        <v>45329</v>
+      </c>
+      <c r="B3248" t="n">
+        <v>18072.04</v>
+      </c>
+      <c r="C3248" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="D3248" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E3248" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="3249">
+      <c r="A3249" s="5" t="n">
+        <v>45330</v>
+      </c>
+      <c r="B3249" t="n">
+        <v>18095.12</v>
+      </c>
+      <c r="C3249" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="D3249" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E3249" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="3250">
+      <c r="A3250" s="5" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B3250" t="n">
+        <v>17955.39</v>
+      </c>
+      <c r="C3250" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="D3250" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E3250" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="3251">
+      <c r="A3251" s="5" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B3251" t="n">
+        <v>17616.01</v>
+      </c>
+      <c r="C3251" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="D3251" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E3251" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="3252">
+      <c r="A3252" s="5" t="n">
+        <v>45335</v>
+      </c>
+      <c r="B3252" t="n">
+        <v>17692.76</v>
+      </c>
+      <c r="C3252" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="D3252" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E3252" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="3253">
+      <c r="A3253" s="5" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B3253" t="n">
+        <v>17871.66</v>
+      </c>
+      <c r="C3253" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="D3253" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E3253" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3254">
+      <c r="A3254" s="5" t="n">
+        <v>45337</v>
+      </c>
+      <c r="B3254" t="n">
+        <v>18050.76</v>
+      </c>
+      <c r="C3254" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="D3254" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E3254" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="3255">
+      <c r="A3255" s="5" t="n">
+        <v>45338</v>
+      </c>
+      <c r="B3255" t="n">
+        <v>18211.25</v>
+      </c>
+      <c r="C3255" t="n">
+        <v>21.57</v>
+      </c>
+      <c r="D3255" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E3255" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3256">
+      <c r="A3256" s="5" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B3256" t="n">
+        <v>18194.12</v>
+      </c>
+      <c r="C3256" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="D3256" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E3256" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3257">
+      <c r="A3257" s="5" t="n">
+        <v>45342</v>
+      </c>
+      <c r="B3257" t="n">
+        <v>18154.67</v>
+      </c>
+      <c r="C3257" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="D3257" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E3257" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3258">
+      <c r="A3258" s="5" t="n">
+        <v>45343</v>
+      </c>
+      <c r="B3258" t="n">
+        <v>17937.02</v>
+      </c>
+      <c r="C3258" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="D3258" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E3258" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3259">
+      <c r="A3259" s="5" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B3259" t="n">
+        <v>18129.72</v>
+      </c>
+      <c r="C3259" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="D3259" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E3259" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="3260">
+      <c r="A3260" s="5" t="n">
+        <v>45345</v>
+      </c>
+      <c r="B3260" t="n">
+        <v>18260.85</v>
+      </c>
+      <c r="C3260" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="D3260" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E3260" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="3261">
+      <c r="A3261" s="5" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B3261" t="n">
+        <v>18151.38</v>
+      </c>
+      <c r="C3261" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D3261" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E3261" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3262">
+      <c r="A3262" s="5" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B3262" t="n">
+        <v>18091.68</v>
+      </c>
+      <c r="C3262" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="D3262" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E3262" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3263">
+      <c r="A3263" s="5" t="n">
+        <v>45350</v>
+      </c>
+      <c r="B3263" t="n">
+        <v>17684.32</v>
+      </c>
+      <c r="C3263" t="n">
+        <v>20.84</v>
+      </c>
+      <c r="D3263" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E3263" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="3264">
+      <c r="A3264" s="5" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B3264" t="n">
+        <v>17850.04</v>
+      </c>
+      <c r="C3264" t="n">
+        <v>21.03</v>
+      </c>
+      <c r="D3264" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E3264" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3265">
+      <c r="A3265" s="5" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B3265" t="n">
+        <v>18047.7</v>
+      </c>
+      <c r="C3265" t="n">
+        <v>21.27</v>
+      </c>
+      <c r="D3265" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E3265" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="3266">
+      <c r="A3266" s="5" t="n">
+        <v>45353</v>
+      </c>
+      <c r="B3266" t="n">
+        <v>18150.12</v>
+      </c>
+      <c r="C3266" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="D3266" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="E3266" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3267">
+      <c r="A3267" s="5" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B3267" t="n">
+        <v>18253.74</v>
+      </c>
+      <c r="C3267" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D3267" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E3267" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="3268">
+      <c r="A3268" s="5" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B3268" t="n">
+        <v>18165.82</v>
+      </c>
+      <c r="C3268" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D3268" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="E3268" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3269">
+      <c r="A3269" s="5" t="n">
+        <v>45357</v>
+      </c>
+      <c r="B3269" t="n">
+        <v>18070.71</v>
+      </c>
+      <c r="C3269" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="D3269" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E3269" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3270">
+      <c r="A3270" s="5" t="n">
+        <v>45358</v>
+      </c>
+      <c r="B3270" t="n">
+        <v>18113.04</v>
+      </c>
+      <c r="C3270" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="D3270" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E3270" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3271">
+      <c r="A3271" s="5" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B3271" t="n">
+        <v>18019.55</v>
+      </c>
+      <c r="C3271" t="n">
+        <v>21.23</v>
+      </c>
+      <c r="D3271" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="E3271" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="3272">
+      <c r="A3272" s="5" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B3272" t="n">
+        <v>17815.55</v>
+      </c>
+      <c r="C3272" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="D3272" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="E3272" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3273">
+      <c r="A3273" s="5" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B3273" t="n">
+        <v>17126.98</v>
+      </c>
+      <c r="C3273" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="D3273" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E3273" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="3274">
+      <c r="A3274" s="5" t="n">
+        <v>45365</v>
+      </c>
+      <c r="B3274" t="n">
+        <v>17410.23</v>
+      </c>
+      <c r="C3274" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="D3274" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E3274" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="3275">
+      <c r="A3275" s="5" t="n">
+        <v>45366</v>
+      </c>
+      <c r="B3275" t="n">
+        <v>17330.21</v>
+      </c>
+      <c r="C3275" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="D3275" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="E3275" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="3276">
+      <c r="A3276" s="5" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B3276" t="n">
+        <v>17142.7</v>
+      </c>
+      <c r="C3276" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="D3276" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E3276" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="3277">
+      <c r="A3277" s="5" t="n">
+        <v>45370</v>
+      </c>
+      <c r="B3277" t="n">
+        <v>16857.94</v>
+      </c>
+      <c r="C3277" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="D3277" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="E3277" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="3278">
+      <c r="A3278" s="5" t="n">
+        <v>45371</v>
+      </c>
+      <c r="B3278" t="n">
+        <v>16849.18</v>
+      </c>
+      <c r="C3278" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="D3278" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="E3278" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="3279">
+      <c r="A3279" s="5" t="n">
+        <v>45372</v>
+      </c>
+      <c r="B3279" t="n">
+        <v>17278.09</v>
+      </c>
+      <c r="C3279" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="D3279" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E3279" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="3280">
+      <c r="A3280" s="5" t="n">
+        <v>45373</v>
+      </c>
+      <c r="B3280" t="n">
+        <v>17316.35</v>
+      </c>
+      <c r="C3280" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="D3280" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="E3280" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3281">
+      <c r="A3281" s="5" t="n">
+        <v>45377</v>
+      </c>
+      <c r="B3281" t="n">
+        <v>17503.61</v>
+      </c>
+      <c r="C3281" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="D3281" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E3281" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="3282">
+      <c r="A3282" s="5" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B3282" t="n">
+        <v>17485.37</v>
+      </c>
+      <c r="C3282" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="D3282" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E3282" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="3283">
+      <c r="A3283" s="5" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B3283" t="n">
+        <v>17571.65</v>
+      </c>
+      <c r="C3283" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="D3283" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="E3283" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3284">
+      <c r="A3284" s="5" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B3284" t="n">
+        <v>17891.38</v>
+      </c>
+      <c r="C3284" t="n">
+        <v>33.77</v>
+      </c>
+      <c r="D3284" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E3284" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3285">
+      <c r="A3285" s="5" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B3285" t="n">
+        <v>18086.25</v>
+      </c>
+      <c r="C3285" t="n">
+        <v>34.14</v>
+      </c>
+      <c r="D3285" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="E3285" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3286">
+      <c r="A3286" s="5" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B3286" t="n">
+        <v>18129.42</v>
+      </c>
+      <c r="C3286" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D3286" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="E3286" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3287">
+      <c r="A3287" s="5" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B3287" t="n">
+        <v>18110.34</v>
+      </c>
+      <c r="C3287" t="n">
+        <v>34.17</v>
+      </c>
+      <c r="D3287" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="E3287" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3288">
+      <c r="A3288" s="5" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B3288" t="n">
+        <v>18158.64</v>
+      </c>
+      <c r="C3288" t="n">
+        <v>34.26</v>
+      </c>
+      <c r="D3288" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="E3288" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3289">
+      <c r="A3289" s="5" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B3289" t="n">
+        <v>18131.04</v>
+      </c>
+      <c r="C3289" t="n">
+        <v>34.21</v>
+      </c>
+      <c r="D3289" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="E3289" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3290">
+      <c r="A3290" s="5" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B3290" t="n">
+        <v>18110.93</v>
+      </c>
+      <c r="C3290" t="n">
+        <v>34.17</v>
+      </c>
+      <c r="D3290" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="E3290" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3291">
+      <c r="A3291" s="5" t="n">
+        <v>45392</v>
+      </c>
+      <c r="B3291" t="n">
+        <v>18314.04</v>
+      </c>
+      <c r="C3291" t="n">
+        <v>34.55</v>
+      </c>
+      <c r="D3291" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E3291" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3292">
+      <c r="A3292" s="5" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B3292" t="n">
+        <v>18250.54</v>
+      </c>
+      <c r="C3292" t="n">
+        <v>34.43</v>
+      </c>
+      <c r="D3292" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="E3292" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3293">
+      <c r="A3293" s="5" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B3293" t="n">
+        <v>17980.61</v>
+      </c>
+      <c r="C3293" t="n">
+        <v>33.92</v>
+      </c>
+      <c r="D3293" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="E3293" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3294">
+      <c r="A3294" s="5" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B3294" t="n">
+        <v>17882.13</v>
+      </c>
+      <c r="C3294" t="n">
+        <v>33.74</v>
+      </c>
+      <c r="D3294" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E3294" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3295">
+      <c r="A3295" s="5" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B3295" t="n">
+        <v>17780.26</v>
+      </c>
+      <c r="C3295" t="n">
+        <v>33.54</v>
+      </c>
+      <c r="D3295" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E3295" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="3296">
+      <c r="A3296" s="5" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B3296" t="n">
+        <v>17661.27</v>
+      </c>
+      <c r="C3296" t="n">
+        <v>33.32</v>
+      </c>
+      <c r="D3296" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E3296" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="3297">
+      <c r="A3297" s="5" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B3297" t="n">
+        <v>17772.71</v>
+      </c>
+      <c r="C3297" t="n">
+        <v>33.53</v>
+      </c>
+      <c r="D3297" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E3297" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="3298">
+      <c r="A3298" s="5" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B3298" t="n">
+        <v>17901.81</v>
+      </c>
+      <c r="C3298" t="n">
+        <v>33.71</v>
+      </c>
+      <c r="D3298" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E3298" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3299">
+      <c r="A3299" s="5" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B3299" t="n">
+        <v>18059.23</v>
+      </c>
+      <c r="C3299" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3299" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="E3299" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3300">
+      <c r="A3300" s="5" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B3300" t="n">
+        <v>18140.44</v>
+      </c>
+      <c r="C3300" t="n">
+        <v>34.12</v>
+      </c>
+      <c r="D3300" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E3300" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3301">
+      <c r="A3301" s="5" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B3301" t="n">
+        <v>18294.95</v>
+      </c>
+      <c r="C3301" t="n">
+        <v>34.48</v>
+      </c>
+      <c r="D3301" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="E3301" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3302">
+      <c r="A3302" s="5" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B3302" t="n">
+        <v>18385.57</v>
+      </c>
+      <c r="C3302" t="n">
+        <v>34.42</v>
+      </c>
+      <c r="D3302" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="E3302" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3303">
+      <c r="A3303" s="5" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B3303" t="n">
+        <v>18397.1</v>
+      </c>
+      <c r="C3303" t="n">
+        <v>34.31</v>
+      </c>
+      <c r="D3303" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="E3303" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3304">
+      <c r="A3304" s="5" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B3304" t="n">
+        <v>18503.21</v>
+      </c>
+      <c r="C3304" t="n">
+        <v>34.41</v>
+      </c>
+      <c r="D3304" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E3304" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3305">
+      <c r="A3305" s="5" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B3305" t="n">
+        <v>18432.68</v>
+      </c>
+      <c r="C3305" t="n">
+        <v>34.36</v>
+      </c>
+      <c r="D3305" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="E3305" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3306">
+      <c r="A3306" s="5" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B3306" t="n">
+        <v>18391.96</v>
+      </c>
+      <c r="C3306" t="n">
+        <v>34.16</v>
+      </c>
+      <c r="D3306" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="E3306" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3307">
+      <c r="A3307" s="5" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B3307" t="n">
+        <v>18023.98</v>
+      </c>
+      <c r="C3307" t="n">
+        <v>33.44</v>
+      </c>
+      <c r="D3307" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E3307" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="3308">
+      <c r="A3308" s="5" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B3308" t="n">
+        <v>18200.3</v>
+      </c>
+      <c r="C3308" t="n">
+        <v>33.76</v>
+      </c>
+      <c r="D3308" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="E3308" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3309">
+      <c r="A3309" s="5" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B3309" t="n">
+        <v>17869.35</v>
+      </c>
+      <c r="C3309" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D3309" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E3309" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3310">
+      <c r="A3310" s="5" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B3310" t="n">
+        <v>18069.73</v>
+      </c>
+      <c r="C3310" t="n">
+        <v>33.53</v>
+      </c>
+      <c r="D3310" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E3310" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3311">
+      <c r="A3311" s="5" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B3311" t="n">
+        <v>18270.98</v>
+      </c>
+      <c r="C3311" t="n">
+        <v>34.24</v>
+      </c>
+      <c r="D3311" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E3311" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3312">
+      <c r="A3312" s="5" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B3312" t="n">
+        <v>18398.7</v>
+      </c>
+      <c r="C3312" t="n">
+        <v>34.45</v>
+      </c>
+      <c r="D3312" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="E3312" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="3313">
+      <c r="A3313" s="5" t="n">
+        <v>45427</v>
+      </c>
+      <c r="B3313" t="n">
+        <v>18529.42</v>
+      </c>
+      <c r="C3313" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="D3313" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E3313" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3314">
+      <c r="A3314" s="5" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B3314" t="n">
+        <v>18703.95</v>
+      </c>
+      <c r="C3314" t="n">
+        <v>35.49</v>
+      </c>
+      <c r="D3314" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E3314" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="3315">
+      <c r="A3315" s="5" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B3315" t="n">
+        <v>18857.62</v>
+      </c>
+      <c r="C3315" t="n">
+        <v>35.77</v>
+      </c>
+      <c r="D3315" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E3315" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3316">
+      <c r="A3316" s="5" t="n">
+        <v>45430</v>
+      </c>
+      <c r="B3316" t="n">
+        <v>18952.71</v>
+      </c>
+      <c r="C3316" t="n">
+        <v>35.95</v>
+      </c>
+      <c r="D3316" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="E3316" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3317">
+      <c r="A3317" s="5" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B3317" t="n">
+        <v>18986.64</v>
+      </c>
+      <c r="C3317" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="D3317" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E3317" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3318">
+      <c r="A3318" s="5" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B3318" t="n">
+        <v>18992.33</v>
+      </c>
+      <c r="C3318" t="n">
+        <v>36.53</v>
+      </c>
+      <c r="D3318" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="E3318" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3319">
+      <c r="A3319" s="5" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B3319" t="n">
+        <v>19068.78</v>
+      </c>
+      <c r="C3319" t="n">
+        <v>36.68</v>
+      </c>
+      <c r="D3319" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E3319" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3320">
+      <c r="A3320" s="5" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B3320" t="n">
+        <v>19049.5</v>
+      </c>
+      <c r="C3320" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="D3320" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E3320" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3321">
+      <c r="A3321" s="5" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B3321" t="n">
+        <v>19206.87</v>
+      </c>
+      <c r="C3321" t="n">
+        <v>36.71</v>
+      </c>
+      <c r="D3321" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="E3321" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3322">
+      <c r="A3322" s="5" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B3322" t="n">
+        <v>19052.18</v>
+      </c>
+      <c r="C3322" t="n">
+        <v>36.22</v>
+      </c>
+      <c r="D3322" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E3322" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3323">
+      <c r="A3323" s="5" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B3323" t="n">
+        <v>19017.22</v>
+      </c>
+      <c r="C3323" t="n">
+        <v>36.16</v>
+      </c>
+      <c r="D3323" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="E3323" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3324">
+      <c r="A3324" s="5" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B3324" t="n">
+        <v>18696.41</v>
+      </c>
+      <c r="C3324" t="n">
+        <v>35.86</v>
+      </c>
+      <c r="D3324" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E3324" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="3325">
+      <c r="A3325" s="5" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B3325" t="n">
+        <v>18765.73</v>
+      </c>
+      <c r="C3325" t="n">
+        <v>41.41</v>
+      </c>
+      <c r="D3325" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E3325" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3326">
+      <c r="A3326" s="5" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B3326" t="n">
+        <v>19384.22</v>
+      </c>
+      <c r="C3326" t="n">
+        <v>42.42</v>
+      </c>
+      <c r="D3326" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="E3326" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3327">
+      <c r="A3327" s="5" t="n">
+        <v>45447</v>
+      </c>
+      <c r="B3327" t="n">
+        <v>17880.65</v>
+      </c>
+      <c r="C3327" t="n">
+        <v>39.13</v>
+      </c>
+      <c r="D3327" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E3327" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3328">
+      <c r="A3328" s="5" t="n">
+        <v>45448</v>
+      </c>
+      <c r="B3328" t="n">
+        <v>18782.48</v>
+      </c>
+      <c r="C3328" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="D3328" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E3328" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3329">
+      <c r="A3329" s="5" t="n">
+        <v>45449</v>
+      </c>
+      <c r="B3329" t="n">
+        <v>19130.57</v>
+      </c>
+      <c r="C3329" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="D3329" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="E3329" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3330">
+      <c r="A3330" s="5" t="n">
+        <v>45450</v>
+      </c>
+      <c r="B3330" t="n">
+        <v>19429</v>
+      </c>
+      <c r="C3330" t="n">
+        <v>42.51</v>
+      </c>
+      <c r="D3330" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="E3330" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3331">
+      <c r="A3331" s="5" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B3331" t="n">
+        <v>19371.3</v>
+      </c>
+      <c r="C3331" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="D3331" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E3331" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3332">
+      <c r="A3332" s="5" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B3332" t="n">
+        <v>19532.33</v>
+      </c>
+      <c r="C3332" t="n">
+        <v>42.66</v>
+      </c>
+      <c r="D3332" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E3332" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3333">
+      <c r="A3333" s="5" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B3333" t="n">
+        <v>19807.14</v>
+      </c>
+      <c r="C3333" t="n">
+        <v>43.26</v>
+      </c>
+      <c r="D3333" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="E3333" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3334">
+      <c r="A3334" s="5" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B3334" t="n">
+        <v>19982.52</v>
+      </c>
+      <c r="C3334" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="D3334" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E3334" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3335">
+      <c r="A3335" s="5" t="n">
+        <v>45457</v>
+      </c>
+      <c r="B3335" t="n">
+        <v>20173.09</v>
+      </c>
+      <c r="C3335" t="n">
+        <v>44.05</v>
+      </c>
+      <c r="D3335" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E3335" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3336">
+      <c r="A3336" s="5" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B3336" t="n">
+        <v>20273.53</v>
+      </c>
+      <c r="C3336" t="n">
+        <v>44.24</v>
+      </c>
+      <c r="D3336" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="E3336" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3337">
+      <c r="A3337" s="5" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B3337" t="n">
+        <v>20080.85</v>
+      </c>
+      <c r="C3337" t="n">
+        <v>43.82</v>
+      </c>
+      <c r="D3337" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E3337" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3338">
+      <c r="A3338" s="5" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B3338" t="n">
+        <v>20306.64</v>
+      </c>
+      <c r="C3338" t="n">
+        <v>44.32</v>
+      </c>
+      <c r="D3338" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="E3338" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3339">
+      <c r="A3339" s="5" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B3339" t="n">
+        <v>20316.03</v>
+      </c>
+      <c r="C3339" t="n">
+        <v>44.34</v>
+      </c>
+      <c r="D3339" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="E3339" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3340">
+      <c r="A3340" s="5" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B3340" t="n">
+        <v>20425.4</v>
+      </c>
+      <c r="C3340" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="D3340" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="E3340" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3341">
+      <c r="A3341" s="5" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B3341" t="n">
+        <v>20363.19</v>
+      </c>
+      <c r="C3341" t="n">
+        <v>44.44</v>
+      </c>
+      <c r="D3341" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="E3341" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3342">
+      <c r="A3342" s="5" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B3342" t="n">
+        <v>20279.46</v>
+      </c>
+      <c r="C3342" t="n">
+        <v>44.26</v>
+      </c>
+      <c r="D3342" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E3342" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3343">
+      <c r="A3343" s="5" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B3343" t="n">
+        <v>20339.74</v>
+      </c>
+      <c r="C3343" t="n">
+        <v>44.39</v>
+      </c>
+      <c r="D3343" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="E3343" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3344">
+      <c r="A3344" s="5" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B3344" t="n">
+        <v>20429.89</v>
+      </c>
+      <c r="C3344" t="n">
+        <v>44.27</v>
+      </c>
+      <c r="D3344" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E3344" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3345">
+      <c r="A3345" s="5" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B3345" t="n">
+        <v>20600.55</v>
+      </c>
+      <c r="C3345" t="n">
+        <v>44.64</v>
+      </c>
+      <c r="D3345" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="E3345" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3346">
+      <c r="A3346" s="5" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B3346" t="n">
+        <v>20432.89</v>
+      </c>
+      <c r="C3346" t="n">
+        <v>44.27</v>
+      </c>
+      <c r="D3346" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E3346" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3347">
+      <c r="A3347" s="5" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B3347" t="n">
+        <v>20629.04</v>
+      </c>
+      <c r="C3347" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="D3347" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="E3347" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3348">
+      <c r="A3348" s="5" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B3348" t="n">
+        <v>20776.99</v>
+      </c>
+      <c r="C3348" t="n">
+        <v>45.02</v>
+      </c>
+      <c r="D3348" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E3348" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3349">
+      <c r="A3349" s="5" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B3349" t="n">
+        <v>20938.19</v>
+      </c>
+      <c r="C3349" t="n">
+        <v>45.36</v>
+      </c>
+      <c r="D3349" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="E3349" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3350">
+      <c r="A3350" s="5" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B3350" t="n">
+        <v>20797.16</v>
+      </c>
+      <c r="C3350" t="n">
+        <v>45.06</v>
+      </c>
+      <c r="D3350" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E3350" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="3351">
+      <c r="A3351" s="5" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B3351" t="n">
+        <v>20850.49</v>
+      </c>
+      <c r="C3351" t="n">
+        <v>45.16</v>
+      </c>
+      <c r="D3351" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="E3351" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="3352">
+      <c r="A3352" s="5" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B3352" t="n">
+        <v>20746.77</v>
+      </c>
+      <c r="C3352" t="n">
+        <v>44.93</v>
+      </c>
+      <c r="D3352" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="E3352" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3353">
+      <c r="A3353" s="5" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B3353" t="n">
+        <v>20770.75</v>
+      </c>
+      <c r="C3353" t="n">
+        <v>44.98</v>
+      </c>
+      <c r="D3353" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="E3353" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3354">
+      <c r="A3354" s="5" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B3354" t="n">
+        <v>20760.4</v>
+      </c>
+      <c r="C3354" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="D3354" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="E3354" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3355">
+      <c r="A3355" s="5" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B3355" t="n">
+        <v>20934.19</v>
+      </c>
+      <c r="C3355" t="n">
+        <v>45.32</v>
+      </c>
+      <c r="D3355" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="E3355" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3356">
+      <c r="A3356" s="5" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B3356" t="n">
+        <v>20957.8</v>
+      </c>
+      <c r="C3356" t="n">
+        <v>45.36</v>
+      </c>
+      <c r="D3356" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="E3356" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3357">
+      <c r="A3357" s="5" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B3357" t="n">
+        <v>20825.25</v>
+      </c>
+      <c r="C3357" t="n">
+        <v>44.99</v>
+      </c>
+      <c r="D3357" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="E3357" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3358">
+      <c r="A3358" s="5" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B3358" t="n">
+        <v>20300.05</v>
+      </c>
+      <c r="C3358" t="n">
+        <v>43.79</v>
+      </c>
+      <c r="D3358" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="E3358" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="3359">
+      <c r="A3359" s="5" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B3359" t="n">
+        <v>20652.41</v>
+      </c>
+      <c r="C3359" t="n">
+        <v>44.48</v>
+      </c>
+      <c r="D3359" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="E3359" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3360">
+      <c r="A3360" s="5" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B3360" t="n">
+        <v>20621.95</v>
+      </c>
+      <c r="C3360" t="n">
+        <v>44.19</v>
+      </c>
+      <c r="D3360" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="E3360" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3361">
+      <c r="A3361" s="5" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B3361" t="n">
+        <v>20801.01</v>
+      </c>
+      <c r="C3361" t="n">
+        <v>44.38</v>
+      </c>
+      <c r="D3361" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="E3361" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3362">
+      <c r="A3362" s="5" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B3362" t="n">
+        <v>20746.53</v>
+      </c>
+      <c r="C3362" t="n">
+        <v>44.22</v>
+      </c>
+      <c r="D3362" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="E3362" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3363">
+      <c r="A3363" s="5" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B3363" t="n">
+        <v>21211.79</v>
+      </c>
+      <c r="C3363" t="n">
+        <v>44.81</v>
+      </c>
+      <c r="D3363" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="E3363" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3364">
+      <c r="A3364" s="5" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B3364" t="n">
+        <v>21419.49</v>
+      </c>
+      <c r="C3364" t="n">
+        <v>45.16</v>
+      </c>
+      <c r="D3364" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E3364" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3365">
+      <c r="A3365" s="5" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B3365" t="n">
+        <v>21537.51</v>
+      </c>
+      <c r="C3365" t="n">
+        <v>49.07</v>
+      </c>
+      <c r="D3365" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E3365" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3366">
+      <c r="A3366" s="5" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B3366" t="n">
+        <v>21687.31</v>
+      </c>
+      <c r="C3366" t="n">
+        <v>49.81</v>
+      </c>
+      <c r="D3366" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E3366" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3367">
+      <c r="A3367" s="5" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B3367" t="n">
+        <v>21484.94</v>
+      </c>
+      <c r="C3367" t="n">
+        <v>49.27</v>
+      </c>
+      <c r="D3367" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E3367" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3368">
+      <c r="A3368" s="5" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B3368" t="n">
+        <v>21178.41</v>
+      </c>
+      <c r="C3368" t="n">
+        <v>48.01</v>
+      </c>
+      <c r="D3368" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E3368" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3369">
+      <c r="A3369" s="5" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B3369" t="n">
+        <v>20484.27</v>
+      </c>
+      <c r="C3369" t="n">
+        <v>46.36</v>
+      </c>
+      <c r="D3369" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E3369" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3370">
+      <c r="A3370" s="5" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B3370" t="n">
+        <v>20378.45</v>
+      </c>
+      <c r="C3370" t="n">
+        <v>46.71</v>
+      </c>
+      <c r="D3370" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E3370" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3371">
+      <c r="A3371" s="5" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B3371" t="n">
+        <v>20929.17</v>
+      </c>
+      <c r="C3371" t="n">
+        <v>47.97</v>
+      </c>
+      <c r="D3371" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="E3371" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="3372">
+      <c r="A3372" s="5" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B3372" t="n">
+        <v>20896.47</v>
+      </c>
+      <c r="C3372" t="n">
+        <v>47.73</v>
+      </c>
+      <c r="D3372" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="E3372" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="3373">
+      <c r="A3373" s="5" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B3373" t="n">
+        <v>21058.58</v>
+      </c>
+      <c r="C3373" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="D3373" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="E3373" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3374">
+      <c r="A3374" s="5" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B3374" t="n">
+        <v>21085.56</v>
+      </c>
+      <c r="C3374" t="n">
+        <v>47.95</v>
+      </c>
+      <c r="D3374" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="E3374" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3375">
+      <c r="A3375" s="5" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B3375" t="n">
+        <v>20903.12</v>
+      </c>
+      <c r="C3375" t="n">
+        <v>47.03</v>
+      </c>
+      <c r="D3375" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="E3375" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3376">
+      <c r="A3376" s="5" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B3376" t="n">
+        <v>20730.7</v>
+      </c>
+      <c r="C3376" t="n">
+        <v>46.64</v>
+      </c>
+      <c r="D3376" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="E3376" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3377">
+      <c r="A3377" s="5" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B3377" t="n">
+        <v>21155.14</v>
+      </c>
+      <c r="C3377" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3377" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E3377" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3378">
+      <c r="A3378" s="5" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B3378" t="n">
+        <v>21173.11</v>
+      </c>
+      <c r="C3378" t="n">
+        <v>47.04</v>
+      </c>
+      <c r="D3378" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="E3378" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3379">
+      <c r="A3379" s="5" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B3379" t="n">
+        <v>21350.16</v>
+      </c>
+      <c r="C3379" t="n">
+        <v>47.43</v>
+      </c>
+      <c r="D3379" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="E3379" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3380">
+      <c r="A3380" s="5" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B3380" t="n">
+        <v>21414.51</v>
+      </c>
+      <c r="C3380" t="n">
+        <v>47.57</v>
+      </c>
+      <c r="D3380" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="E3380" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3381">
+      <c r="A3381" s="5" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B3381" t="n">
+        <v>21585.06</v>
+      </c>
+      <c r="C3381" t="n">
+        <v>47.95</v>
+      </c>
+      <c r="D3381" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E3381" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3382">
+      <c r="A3382" s="5" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B3382" t="n">
+        <v>21444.13</v>
+      </c>
+      <c r="C3382" t="n">
+        <v>47.63</v>
+      </c>
+      <c r="D3382" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E3382" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3383">
+      <c r="A3383" s="5" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B3383" t="n">
+        <v>21567.69</v>
+      </c>
+      <c r="C3383" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="D3383" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="E3383" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3384">
+      <c r="A3384" s="5" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B3384" t="n">
+        <v>21597.68</v>
+      </c>
+      <c r="C3384" t="n">
+        <v>47.97</v>
+      </c>
+      <c r="D3384" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E3384" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3385">
+      <c r="A3385" s="5" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B3385" t="n">
+        <v>21604.48</v>
+      </c>
+      <c r="C3385" t="n">
+        <v>47.98</v>
+      </c>
+      <c r="D3385" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E3385" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3386">
+      <c r="A3386" s="5" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B3386" t="n">
+        <v>21511.32</v>
+      </c>
+      <c r="C3386" t="n">
+        <v>47.77</v>
+      </c>
+      <c r="D3386" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E3386" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3387">
+      <c r="A3387" s="5" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B3387" t="n">
+        <v>21646.92</v>
+      </c>
+      <c r="C3387" t="n">
+        <v>47.82</v>
+      </c>
+      <c r="D3387" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="E3387" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3388">
+      <c r="A3388" s="5" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B3388" t="n">
+        <v>21607.79</v>
+      </c>
+      <c r="C3388" t="n">
+        <v>47.73</v>
+      </c>
+      <c r="D3388" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E3388" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3389">
+      <c r="A3389" s="5" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B3389" t="n">
+        <v>21689.64</v>
+      </c>
+      <c r="C3389" t="n">
+        <v>47.91</v>
+      </c>
+      <c r="D3389" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E3389" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3390">
+      <c r="A3390" s="5" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B3390" t="n">
+        <v>21658.83</v>
+      </c>
+      <c r="C3390" t="n">
+        <v>47.84</v>
+      </c>
+      <c r="D3390" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="E3390" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3391">
+      <c r="A3391" s="5" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B3391" t="n">
+        <v>21759.39</v>
+      </c>
+      <c r="C3391" t="n">
+        <v>48.06</v>
+      </c>
+      <c r="D3391" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E3391" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3392">
+      <c r="A3392" s="5" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B3392" t="n">
+        <v>21380.11</v>
+      </c>
+      <c r="C3392" t="n">
+        <v>47.23</v>
+      </c>
+      <c r="D3392" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="E3392" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3392"/>
+  <dimension ref="A1:E3402"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3001" workbookViewId="0">
       <selection activeCell="A3021" sqref="A3021"/>
@@ -57841,6 +57841,176 @@
         <v>0.71</v>
       </c>
     </row>
+    <row r="3393">
+      <c r="A3393" s="5" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B3393" t="n">
+        <v>21270.61</v>
+      </c>
+      <c r="C3393" t="n">
+        <v>46.98</v>
+      </c>
+      <c r="D3393" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E3393" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3394">
+      <c r="A3394" s="5" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B3394" t="n">
+        <v>21575.36</v>
+      </c>
+      <c r="C3394" t="n">
+        <v>47.65</v>
+      </c>
+      <c r="D3394" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="E3394" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3395">
+      <c r="A3395" s="5" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B3395" t="n">
+        <v>21553.22</v>
+      </c>
+      <c r="C3395" t="n">
+        <v>47.61</v>
+      </c>
+      <c r="D3395" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E3395" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3396">
+      <c r="A3396" s="5" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B3396" t="n">
+        <v>21832.34</v>
+      </c>
+      <c r="C3396" t="n">
+        <v>48.22</v>
+      </c>
+      <c r="D3396" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E3396" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3397">
+      <c r="A3397" s="5" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B3397" t="n">
+        <v>21985.88</v>
+      </c>
+      <c r="C3397" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="D3397" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E3397" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3398">
+      <c r="A3398" s="5" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B3398" t="n">
+        <v>22001.42</v>
+      </c>
+      <c r="C3398" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="D3398" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E3398" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3399">
+      <c r="A3399" s="5" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B3399" t="n">
+        <v>21993.17</v>
+      </c>
+      <c r="C3399" t="n">
+        <v>48.57</v>
+      </c>
+      <c r="D3399" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E3399" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3400">
+      <c r="A3400" s="5" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B3400" t="n">
+        <v>21741.43</v>
+      </c>
+      <c r="C3400" t="n">
+        <v>48.01</v>
+      </c>
+      <c r="D3400" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="E3400" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3401">
+      <c r="A3401" s="5" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B3401" t="n">
+        <v>21608.86</v>
+      </c>
+      <c r="C3401" t="n">
+        <v>47.72</v>
+      </c>
+      <c r="D3401" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E3401" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3402">
+      <c r="A3402" s="5" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B3402" t="n">
+        <v>21847.17</v>
+      </c>
+      <c r="C3402" t="n">
+        <v>48.24</v>
+      </c>
+      <c r="D3402" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E3402" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3402"/>
+  <dimension ref="A1:E3407"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3001" workbookViewId="0">
       <selection activeCell="A3021" sqref="A3021"/>
@@ -58011,6 +58011,91 @@
         <v>0.71</v>
       </c>
     </row>
+    <row r="3403">
+      <c r="A3403" s="5" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B3403" t="n">
+        <v>22047.64</v>
+      </c>
+      <c r="C3403" t="n">
+        <v>48.69</v>
+      </c>
+      <c r="D3403" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E3403" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3404">
+      <c r="A3404" s="5" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B3404" t="n">
+        <v>22137.62</v>
+      </c>
+      <c r="C3404" t="n">
+        <v>48.88</v>
+      </c>
+      <c r="D3404" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="E3404" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3405">
+      <c r="A3405" s="5" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B3405" t="n">
+        <v>22036.84</v>
+      </c>
+      <c r="C3405" t="n">
+        <v>48.66</v>
+      </c>
+      <c r="D3405" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E3405" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3406">
+      <c r="A3406" s="5" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B3406" t="n">
+        <v>22081.48</v>
+      </c>
+      <c r="C3406" t="n">
+        <v>48.76</v>
+      </c>
+      <c r="D3406" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="E3406" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3407">
+      <c r="A3407" s="5" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B3407" t="n">
+        <v>22134.38</v>
+      </c>
+      <c r="C3407" t="n">
+        <v>48.88</v>
+      </c>
+      <c r="D3407" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="E3407" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nifty midcap 50.xlsx
+++ b/nifty midcap 50.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3407"/>
+  <dimension ref="A1:E3480"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3001" workbookViewId="0">
       <selection activeCell="A3021" sqref="A3021"/>
@@ -58096,6 +58096,1247 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="3408">
+      <c r="A3408" s="5" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B3408" t="n">
+        <v>21998.18</v>
+      </c>
+      <c r="C3408" t="n">
+        <v>50.95</v>
+      </c>
+      <c r="D3408" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="E3408" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="3409">
+      <c r="A3409" s="5" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B3409" t="n">
+        <v>22087.67</v>
+      </c>
+      <c r="C3409" t="n">
+        <v>51.16</v>
+      </c>
+      <c r="D3409" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="E3409" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="3410">
+      <c r="A3410" s="5" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B3410" t="n">
+        <v>21581.69</v>
+      </c>
+      <c r="C3410" t="n">
+        <v>49.99</v>
+      </c>
+      <c r="D3410" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="E3410" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3411">
+      <c r="A3411" s="5" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B3411" t="n">
+        <v>21352.22</v>
+      </c>
+      <c r="C3411" t="n">
+        <v>49.46</v>
+      </c>
+      <c r="D3411" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3411" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" s="5" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B3412" t="n">
+        <v>21020.69</v>
+      </c>
+      <c r="C3412" t="n">
+        <v>48.69</v>
+      </c>
+      <c r="D3412" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="E3412" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" s="5" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B3413" t="n">
+        <v>21379.27</v>
+      </c>
+      <c r="C3413" t="n">
+        <v>49.52</v>
+      </c>
+      <c r="D3413" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E3413" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" s="5" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B3414" t="n">
+        <v>21562.83</v>
+      </c>
+      <c r="C3414" t="n">
+        <v>49.94</v>
+      </c>
+      <c r="D3414" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E3414" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" s="5" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B3415" t="n">
+        <v>21475.71</v>
+      </c>
+      <c r="C3415" t="n">
+        <v>49.01</v>
+      </c>
+      <c r="D3415" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E3415" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" s="5" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B3416" t="n">
+        <v>21525.94</v>
+      </c>
+      <c r="C3416" t="n">
+        <v>49.13</v>
+      </c>
+      <c r="D3416" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="E3416" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" s="5" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B3417" t="n">
+        <v>21651.74</v>
+      </c>
+      <c r="C3417" t="n">
+        <v>49.42</v>
+      </c>
+      <c r="D3417" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E3417" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" s="5" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B3418" t="n">
+        <v>21705.79</v>
+      </c>
+      <c r="C3418" t="n">
+        <v>49.54</v>
+      </c>
+      <c r="D3418" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E3418" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3419">
+      <c r="A3419" s="5" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B3419" t="n">
+        <v>21705.9</v>
+      </c>
+      <c r="C3419" t="n">
+        <v>49.54</v>
+      </c>
+      <c r="D3419" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E3419" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" s="5" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B3420" t="n">
+        <v>21367.38</v>
+      </c>
+      <c r="C3420" t="n">
+        <v>48.68</v>
+      </c>
+      <c r="D3420" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E3420" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3421">
+      <c r="A3421" s="5" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B3421" t="n">
+        <v>21447.33</v>
+      </c>
+      <c r="C3421" t="n">
+        <v>48.86</v>
+      </c>
+      <c r="D3421" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E3421" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" s="5" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B3422" t="n">
+        <v>21023.36</v>
+      </c>
+      <c r="C3422" t="n">
+        <v>47.86</v>
+      </c>
+      <c r="D3422" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="E3422" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" s="5" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B3423" t="n">
+        <v>20507.8</v>
+      </c>
+      <c r="C3423" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D3423" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E3423" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" s="5" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B3424" t="n">
+        <v>20538.43</v>
+      </c>
+      <c r="C3424" t="n">
+        <v>46.68</v>
+      </c>
+      <c r="D3424" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="E3424" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" s="5" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B3425" t="n">
+        <v>20399.67</v>
+      </c>
+      <c r="C3425" t="n">
+        <v>45.86</v>
+      </c>
+      <c r="D3425" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E3425" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" s="5" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B3426" t="n">
+        <v>20090.97</v>
+      </c>
+      <c r="C3426" t="n">
+        <v>44.84</v>
+      </c>
+      <c r="D3426" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="E3426" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" s="5" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B3427" t="n">
+        <v>20253.92</v>
+      </c>
+      <c r="C3427" t="n">
+        <v>44.97</v>
+      </c>
+      <c r="D3427" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="E3427" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" s="5" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B3428" t="n">
+        <v>20426.94</v>
+      </c>
+      <c r="C3428" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="D3428" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="E3428" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" s="5" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B3429" t="n">
+        <v>20388.66</v>
+      </c>
+      <c r="C3429" t="n">
+        <v>49.01</v>
+      </c>
+      <c r="D3429" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E3429" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" s="5" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B3430" t="n">
+        <v>20248.1</v>
+      </c>
+      <c r="C3430" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="D3430" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="E3430" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" s="5" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B3431" t="n">
+        <v>20391</v>
+      </c>
+      <c r="C3431" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="D3431" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E3431" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" s="5" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B3432" t="n">
+        <v>20209.9</v>
+      </c>
+      <c r="C3432" t="n">
+        <v>48.28</v>
+      </c>
+      <c r="D3432" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="E3432" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" s="5" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B3433" t="n">
+        <v>20320.05</v>
+      </c>
+      <c r="C3433" t="n">
+        <v>48.55</v>
+      </c>
+      <c r="D3433" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="E3433" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" s="5" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B3434" t="n">
+        <v>20797.92</v>
+      </c>
+      <c r="C3434" t="n">
+        <v>49.69</v>
+      </c>
+      <c r="D3434" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="E3434" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" s="5" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B3435" t="n">
+        <v>20665.22</v>
+      </c>
+      <c r="C3435" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="D3435" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E3435" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" s="5" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B3436" t="n">
+        <v>20404.96</v>
+      </c>
+      <c r="C3436" t="n">
+        <v>48.66</v>
+      </c>
+      <c r="D3436" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E3436" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" s="5" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B3437" t="n">
+        <v>20238.54</v>
+      </c>
+      <c r="C3437" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="D3437" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="E3437" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" s="5" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B3438" t="n">
+        <v>19993.81</v>
+      </c>
+      <c r="C3438" t="n">
+        <v>47.17</v>
+      </c>
+      <c r="D3438" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="E3438" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" s="5" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B3439" t="n">
+        <v>19505.23</v>
+      </c>
+      <c r="C3439" t="n">
+        <v>46.18</v>
+      </c>
+      <c r="D3439" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="E3439" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" s="5" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B3440" t="n">
+        <v>19612.79</v>
+      </c>
+      <c r="C3440" t="n">
+        <v>46.39</v>
+      </c>
+      <c r="D3440" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E3440" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" s="5" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B3441" t="n">
+        <v>19653.29</v>
+      </c>
+      <c r="C3441" t="n">
+        <v>46.44</v>
+      </c>
+      <c r="D3441" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E3441" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" s="5" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B3442" t="n">
+        <v>19794.6</v>
+      </c>
+      <c r="C3442" t="n">
+        <v>45.97</v>
+      </c>
+      <c r="D3442" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E3442" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" s="5" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B3443" t="n">
+        <v>19771.84</v>
+      </c>
+      <c r="C3443" t="n">
+        <v>45.92</v>
+      </c>
+      <c r="D3443" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E3443" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" s="5" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B3444" t="n">
+        <v>20014.51</v>
+      </c>
+      <c r="C3444" t="n">
+        <v>46.48</v>
+      </c>
+      <c r="D3444" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="E3444" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3445">
+      <c r="A3445" s="5" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B3445" t="n">
+        <v>20340.85</v>
+      </c>
+      <c r="C3445" t="n">
+        <v>47.24</v>
+      </c>
+      <c r="D3445" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="E3445" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3446">
+      <c r="A3446" s="5" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B3446" t="n">
+        <v>20381.68</v>
+      </c>
+      <c r="C3446" t="n">
+        <v>47.31</v>
+      </c>
+      <c r="D3446" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="E3446" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3447">
+      <c r="A3447" s="5" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B3447" t="n">
+        <v>20505.58</v>
+      </c>
+      <c r="C3447" t="n">
+        <v>47.59</v>
+      </c>
+      <c r="D3447" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="E3447" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3448">
+      <c r="A3448" s="5" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B3448" t="n">
+        <v>20416.23</v>
+      </c>
+      <c r="C3448" t="n">
+        <v>47.39</v>
+      </c>
+      <c r="D3448" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="E3448" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3449">
+      <c r="A3449" s="5" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B3449" t="n">
+        <v>20462.98</v>
+      </c>
+      <c r="C3449" t="n">
+        <v>47.49</v>
+      </c>
+      <c r="D3449" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="E3449" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3450">
+      <c r="A3450" s="5" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B3450" t="n">
+        <v>20757.32</v>
+      </c>
+      <c r="C3450" t="n">
+        <v>48.18</v>
+      </c>
+      <c r="D3450" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="E3450" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3451">
+      <c r="A3451" s="5" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B3451" t="n">
+        <v>20929.62</v>
+      </c>
+      <c r="C3451" t="n">
+        <v>48.58</v>
+      </c>
+      <c r="D3451" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E3451" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="3452">
+      <c r="A3452" s="5" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B3452" t="n">
+        <v>21139.97</v>
+      </c>
+      <c r="C3452" t="n">
+        <v>49.06</v>
+      </c>
+      <c r="D3452" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="E3452" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3453">
+      <c r="A3453" s="5" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B3453" t="n">
+        <v>21210.19</v>
+      </c>
+      <c r="C3453" t="n">
+        <v>49.23</v>
+      </c>
+      <c r="D3453" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E3453" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3454">
+      <c r="A3454" s="5" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B3454" t="n">
+        <v>21277.05</v>
+      </c>
+      <c r="C3454" t="n">
+        <v>49.38</v>
+      </c>
+      <c r="D3454" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E3454" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3455">
+      <c r="A3455" s="5" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B3455" t="n">
+        <v>21390.82</v>
+      </c>
+      <c r="C3455" t="n">
+        <v>49.65</v>
+      </c>
+      <c r="D3455" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E3455" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3456">
+      <c r="A3456" s="5" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B3456" t="n">
+        <v>21487.48</v>
+      </c>
+      <c r="C3456" t="n">
+        <v>49.87</v>
+      </c>
+      <c r="D3456" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="E3456" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3457">
+      <c r="A3457" s="5" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B3457" t="n">
+        <v>21556.98</v>
+      </c>
+      <c r="C3457" t="n">
+        <v>50.03</v>
+      </c>
+      <c r="D3457" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="E3457" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3458">
+      <c r="A3458" s="5" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B3458" t="n">
+        <v>21461.64</v>
+      </c>
+      <c r="C3458" t="n">
+        <v>49.81</v>
+      </c>
+      <c r="D3458" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="E3458" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3459">
+      <c r="A3459" s="5" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B3459" t="n">
+        <v>21451.78</v>
+      </c>
+      <c r="C3459" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="D3459" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="E3459" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3460">
+      <c r="A3460" s="5" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B3460" t="n">
+        <v>21603.81</v>
+      </c>
+      <c r="C3460" t="n">
+        <v>50.14</v>
+      </c>
+      <c r="D3460" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E3460" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3461">
+      <c r="A3461" s="5" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B3461" t="n">
+        <v>21495.81</v>
+      </c>
+      <c r="C3461" t="n">
+        <v>49.89</v>
+      </c>
+      <c r="D3461" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E3461" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3462">
+      <c r="A3462" s="5" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B3462" t="n">
+        <v>21354.15</v>
+      </c>
+      <c r="C3462" t="n">
+        <v>49.56</v>
+      </c>
+      <c r="D3462" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E3462" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3463">
+      <c r="A3463" s="5" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B3463" t="n">
+        <v>21277.75</v>
+      </c>
+      <c r="C3463" t="n">
+        <v>49.38</v>
+      </c>
+      <c r="D3463" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E3463" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3464">
+      <c r="A3464" s="5" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B3464" t="n">
+        <v>20701.99</v>
+      </c>
+      <c r="C3464" t="n">
+        <v>48.05</v>
+      </c>
+      <c r="D3464" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E3464" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3465">
+      <c r="A3465" s="5" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B3465" t="n">
+        <v>20798.67</v>
+      </c>
+      <c r="C3465" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="D3465" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E3465" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3466">
+      <c r="A3466" s="5" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B3466" t="n">
+        <v>20761.56</v>
+      </c>
+      <c r="C3466" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="D3466" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="E3466" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3467">
+      <c r="A3467" s="5" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B3467" t="n">
+        <v>20808.7</v>
+      </c>
+      <c r="C3467" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="D3467" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E3467" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3468">
+      <c r="A3468" s="5" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B3468" t="n">
+        <v>20751.91</v>
+      </c>
+      <c r="C3468" t="n">
+        <v>48.16</v>
+      </c>
+      <c r="D3468" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="E3468" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3469">
+      <c r="A3469" s="5" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B3469" t="n">
+        <v>20896.58</v>
+      </c>
+      <c r="C3469" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="D3469" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="E3469" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="3470">
+      <c r="A3470" s="5" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B3470" t="n">
+        <v>20823.26</v>
+      </c>
+      <c r="C3470" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3470" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E3470" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="3471">
+      <c r="A3471" s="5" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B3471" t="n">
+        <v>20924.75</v>
+      </c>
+      <c r="C3471" t="n">
+        <v>50.25</v>
+      </c>
+      <c r="D3471" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E3471" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="3472">
+      <c r="A3472" s="5" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B3472" t="n">
+        <v>21172.38</v>
+      </c>
+      <c r="C3472" t="n">
+        <v>50.84</v>
+      </c>
+      <c r="D3472" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E3472" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3473">
+      <c r="A3473" s="5" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B3473" t="n">
+        <v>21093.71</v>
+      </c>
+      <c r="C3473" t="n">
+        <v>50.65</v>
+      </c>
+      <c r="D3473" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="E3473" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3474">
+      <c r="A3474" s="5" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B3474" t="n">
+        <v>20528.93</v>
+      </c>
+      <c r="C3474" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="D3474" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E3474" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3475">
+      <c r="A3475" s="5" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B3475" t="n">
+        <v>20684.99</v>
+      </c>
+      <c r="C3475" t="n">
+        <v>49.67</v>
+      </c>
+      <c r="D3475" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="E3475" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="3476">
+      <c r="A3476" s="5" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B3476" t="n">
+        <v>20455.74</v>
+      </c>
+      <c r="C3476" t="n">
+        <v>49.12</v>
+      </c>
+      <c r="D3476" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E3476" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3477">
+      <c r="A3477" s="5" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B3477" t="n">
+        <v>20302.67</v>
+      </c>
+      <c r="C3477" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="D3477" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="E3477" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3478">
+      <c r="A3478" s="5" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B3478" t="n">
+        <v>19900.8</v>
+      </c>
+      <c r="C3478" t="n">
+        <v>47.79</v>
+      </c>
+      <c r="D3478" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="E3478" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="3479">
+      <c r="A3479" s="5" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B3479" t="n">
+        <v>19097.3</v>
+      </c>
+      <c r="C3479" t="n">
+        <v>45.86</v>
+      </c>
+      <c r="D3479" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E3479" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="3480">
+      <c r="A3480" s="5" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B3480" t="n">
+        <v>19514.48</v>
+      </c>
+      <c r="C3480" t="n">
+        <v>46.86</v>
+      </c>
+      <c r="D3480" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="E3480" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
